--- a/ITC,CP,DS,DB.xlsx
+++ b/ITC,CP,DS,DB.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="454" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="454" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="75-25" sheetId="1" r:id="rId1"/>
     <sheet name="70-30" sheetId="3" r:id="rId2"/>
+    <sheet name="ITC-DB JP" sheetId="4" r:id="rId3"/>
+    <sheet name="CP-DB JP" sheetId="5" r:id="rId4"/>
+    <sheet name="DS-DB JP" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -934,6 +937,21 @@
   </si>
   <si>
     <t>56K-1661</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
 </sst>
 </file>
@@ -957,7 +975,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -965,12 +983,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6394,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11480,10 +11656,9211 @@
         <v>2</v>
       </c>
       <c r="E299">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R224"/>
+  <sheetViews>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2.33</v>
+      </c>
+      <c r="C2">
+        <v>2.33</v>
+      </c>
+      <c r="F2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2.67</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2.33</v>
+      </c>
+      <c r="C4">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3.67</v>
+      </c>
+      <c r="C5">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3.33</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3.67</v>
+      </c>
+      <c r="C7">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3.67</v>
+      </c>
+      <c r="C8">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3.33</v>
+      </c>
+      <c r="C9">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.33</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1.33</v>
+      </c>
+      <c r="C12">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.67</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2.33</v>
+      </c>
+      <c r="C19">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.33</v>
+      </c>
+      <c r="C21">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>2.67</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>3.67</v>
+      </c>
+      <c r="C23">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>3.33</v>
+      </c>
+      <c r="C24">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>3.67</v>
+      </c>
+      <c r="C25">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2.67</v>
+      </c>
+      <c r="C27">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>2.33</v>
+      </c>
+      <c r="C29">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2.67</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>3.33</v>
+      </c>
+      <c r="C32">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>2.33</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>2.33</v>
+      </c>
+      <c r="C36">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>3.33</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>2.67</v>
+      </c>
+      <c r="C40">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>2.33</v>
+      </c>
+      <c r="C44">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>3.33</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>3.33</v>
+      </c>
+      <c r="C50">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>2.33</v>
+      </c>
+      <c r="C51">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>3.33</v>
+      </c>
+      <c r="C52">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>3.67</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>1.33</v>
+      </c>
+      <c r="C54">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>2.33</v>
+      </c>
+      <c r="C61">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>2.33</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>1.33</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>2.67</v>
+      </c>
+      <c r="C70">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>2.67</v>
+      </c>
+      <c r="C71">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>1.67</v>
+      </c>
+      <c r="C72">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>1.67</v>
+      </c>
+      <c r="C73">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>2.33</v>
+      </c>
+      <c r="C75">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>2.67</v>
+      </c>
+      <c r="C76">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>2.33</v>
+      </c>
+      <c r="C77">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>2.67</v>
+      </c>
+      <c r="C78">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>2.33</v>
+      </c>
+      <c r="C80">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>2.67</v>
+      </c>
+      <c r="C81">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>1.33</v>
+      </c>
+      <c r="C84">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>1.67</v>
+      </c>
+      <c r="C85">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>3.33</v>
+      </c>
+      <c r="C86">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>3.67</v>
+      </c>
+      <c r="C87">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>2.33</v>
+      </c>
+      <c r="C88">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>2.33</v>
+      </c>
+      <c r="C90">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>2.67</v>
+      </c>
+      <c r="C92">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>2.33</v>
+      </c>
+      <c r="C93">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>2.33</v>
+      </c>
+      <c r="C95">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>1.67</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>1.33</v>
+      </c>
+      <c r="C97">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>1.67</v>
+      </c>
+      <c r="C103">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>3.33</v>
+      </c>
+      <c r="C104">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>1.33</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>2.33</v>
+      </c>
+      <c r="C111">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>2.67</v>
+      </c>
+      <c r="C112">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>2.67</v>
+      </c>
+      <c r="C113">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>1.67</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>2.67</v>
+      </c>
+      <c r="C116">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>1.67</v>
+      </c>
+      <c r="C117">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>1.33</v>
+      </c>
+      <c r="C118">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>3.67</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>2.67</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>3.33</v>
+      </c>
+      <c r="C122">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
+        <v>2.67</v>
+      </c>
+      <c r="C124">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
+        <v>3.67</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
+        <v>2.67</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
+        <v>3.67</v>
+      </c>
+      <c r="C132">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>2.33</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136">
+        <v>3.67</v>
+      </c>
+      <c r="C136">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>2.67</v>
+      </c>
+      <c r="C137">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138">
+        <v>3.33</v>
+      </c>
+      <c r="C138">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>3.67</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>3.33</v>
+      </c>
+      <c r="C141">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142">
+        <v>1.67</v>
+      </c>
+      <c r="C142">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>2.67</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>2.33</v>
+      </c>
+      <c r="C144">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>3.67</v>
+      </c>
+      <c r="C146">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147">
+        <v>2.67</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>1.67</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>3.33</v>
+      </c>
+      <c r="C149">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150">
+        <v>2.33</v>
+      </c>
+      <c r="C150">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>1.67</v>
+      </c>
+      <c r="C151">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>3.33</v>
+      </c>
+      <c r="C152">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>3.33</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>3.67</v>
+      </c>
+      <c r="C154">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>2.67</v>
+      </c>
+      <c r="C155">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>3.67</v>
+      </c>
+      <c r="C156">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>2.67</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158">
+        <v>2.67</v>
+      </c>
+      <c r="C158">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159">
+        <v>3.67</v>
+      </c>
+      <c r="C159">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>2.33</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163">
+        <v>1.33</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165">
+        <v>2.67</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166">
+        <v>3.33</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167">
+        <v>1.67</v>
+      </c>
+      <c r="C167">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168">
+        <v>2.33</v>
+      </c>
+      <c r="C168">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169">
+        <v>3.67</v>
+      </c>
+      <c r="C169">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170">
+        <v>3.33</v>
+      </c>
+      <c r="C170">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171">
+        <v>3.33</v>
+      </c>
+      <c r="C171">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172">
+        <v>2.67</v>
+      </c>
+      <c r="C172">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>2.67</v>
+      </c>
+      <c r="C175">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>2.33</v>
+      </c>
+      <c r="C177">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>2.33</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>3.33</v>
+      </c>
+      <c r="C182">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183">
+        <v>2.67</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184">
+        <v>3.33</v>
+      </c>
+      <c r="C184">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185">
+        <v>3.33</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186">
+        <v>2.33</v>
+      </c>
+      <c r="C186">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188">
+        <v>2.67</v>
+      </c>
+      <c r="C188">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189">
+        <v>3.33</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190">
+        <v>3.67</v>
+      </c>
+      <c r="C190">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>204</v>
+      </c>
+      <c r="B191">
+        <v>3.67</v>
+      </c>
+      <c r="C191">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192">
+        <v>2.33</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193">
+        <v>3.33</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196">
+        <v>2.67</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197">
+        <v>3.67</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198">
+        <v>3.67</v>
+      </c>
+      <c r="C198">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>222</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203">
+        <v>3.33</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204">
+        <v>1.33</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206">
+        <v>2.67</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>262</v>
+      </c>
+      <c r="B207">
+        <v>3.67</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209">
+        <v>3.33</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E211" s="2"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B212" s="20">
+        <f>SUM(B213:B231)</f>
+        <v>208</v>
+      </c>
+      <c r="C212" s="21">
+        <f>SUM(C213:C222)</f>
+        <v>208</v>
+      </c>
+      <c r="E212" s="14"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="4">
+        <v>4</v>
+      </c>
+      <c r="H212" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="I212" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="J212" s="4">
+        <v>3</v>
+      </c>
+      <c r="K212" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="L212" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="M212" s="4">
+        <v>2</v>
+      </c>
+      <c r="N212" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="O212" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="P212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>4</v>
+      </c>
+      <c r="B213" s="8">
+        <f>COUNTIF(B2:B209,"4")</f>
+        <v>34</v>
+      </c>
+      <c r="C213" s="10">
+        <f>COUNTIF(C2:C209,"4")</f>
+        <v>8</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F213" s="4">
+        <v>4</v>
+      </c>
+      <c r="G213" s="5">
+        <f>(B213/B212)*(C213/B212)</f>
+        <v>6.2869822485207101E-3</v>
+      </c>
+      <c r="H213" s="6">
+        <f>(B$214/B$212)*(C213/B$212)</f>
+        <v>4.0680473372781065E-3</v>
+      </c>
+      <c r="I213" s="6">
+        <f>(B$215/B$212)*(C213/B$212)</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="J213" s="6">
+        <f>(B$216/B$212)*(C213/B$212)</f>
+        <v>4.0680473372781065E-3</v>
+      </c>
+      <c r="K213" s="6">
+        <f>(B$217/B$212)*(C213/B$212)</f>
+        <v>5.5473372781065086E-3</v>
+      </c>
+      <c r="L213" s="6">
+        <f>(B$218/B$212)*(C213/B$212)</f>
+        <v>5.1775147928994087E-3</v>
+      </c>
+      <c r="M213" s="6">
+        <f>(B$219/B$212)*(C213/B$212)</f>
+        <v>3.3284023668639054E-3</v>
+      </c>
+      <c r="N213" s="6">
+        <f>(B$220/B$212)*(C213/B$212)</f>
+        <v>2.0340236686390532E-3</v>
+      </c>
+      <c r="O213" s="6">
+        <f>(B$221/B$212)*(C213/B$212)</f>
+        <v>1.8491124260355031E-3</v>
+      </c>
+      <c r="P213" s="9">
+        <f>(B$222/B$212)*(C213/B$212)</f>
+        <v>1.2943786982248522E-3</v>
+      </c>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="9">
+        <f>SUM(G213:P213)</f>
+        <v>3.8461538461538471E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="B214" s="8">
+        <f>COUNTIF(B2:B209,"3.67")</f>
+        <v>22</v>
+      </c>
+      <c r="C214" s="10">
+        <f>COUNTIF(C2:C209,"3.67")</f>
+        <v>13</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="F214" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="G214" s="7">
+        <f>(B$213/B$212)*(C$214/B$212)</f>
+        <v>1.0216346153846154E-2</v>
+      </c>
+      <c r="H214" s="8">
+        <f>(B$214/B$212)*(C214/B$212)</f>
+        <v>6.610576923076923E-3</v>
+      </c>
+      <c r="I214" s="8">
+        <f>(B$215/B$212)*(C214/B$212)</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="J214" s="8">
+        <f>(B$216/B$212)*(C214/B$212)</f>
+        <v>6.610576923076923E-3</v>
+      </c>
+      <c r="K214" s="8">
+        <f>(B$217/B$212)*(C214/B$212)</f>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="L214" s="8">
+        <f>(B$218/B$212)*(C214/B$212)</f>
+        <v>8.4134615384615381E-3</v>
+      </c>
+      <c r="M214" s="8">
+        <f t="shared" ref="M214:M222" si="0">(B$219/B$212)*(C214/B$212)</f>
+        <v>5.408653846153846E-3</v>
+      </c>
+      <c r="N214" s="8">
+        <f t="shared" ref="N214:N222" si="1">(B$220/B$212)*(C214/B$212)</f>
+        <v>3.3052884615384615E-3</v>
+      </c>
+      <c r="O214" s="8">
+        <f t="shared" ref="O214:O222" si="2">(B$221/B$212)*(C214/B$212)</f>
+        <v>3.0048076923076925E-3</v>
+      </c>
+      <c r="P214" s="10">
+        <f t="shared" ref="P214:P222" si="3">(B$222/B$212)*(C214/B$212)</f>
+        <v>2.1033653846153845E-3</v>
+      </c>
+      <c r="Q214" s="7"/>
+      <c r="R214" s="10">
+        <f>SUM(G214:P214)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="B215" s="8">
+        <f>COUNTIF(B2:B209,"3.33")</f>
+        <v>26</v>
+      </c>
+      <c r="C215" s="10">
+        <f>COUNTIF(C2:C209,"3.33")</f>
+        <v>15</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G215" s="7">
+        <f>(B$213/B$212)*(C$215/B$212)</f>
+        <v>1.1788091715976331E-2</v>
+      </c>
+      <c r="H215" s="8">
+        <f>(B$214/B$212)*(C215/B$212)</f>
+        <v>7.6275887573964488E-3</v>
+      </c>
+      <c r="I215" s="8">
+        <f>(B$215/B$212)*(C215/B$212)</f>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="J215" s="8">
+        <f>(B$216/B$212)*(C215/B$212)</f>
+        <v>7.6275887573964488E-3</v>
+      </c>
+      <c r="K215" s="8">
+        <f>(B$217/B$212)*(C215/B$212)</f>
+        <v>1.0401257396449702E-2</v>
+      </c>
+      <c r="L215" s="8">
+        <f>(B$218/B$212)*(C215/B$212)</f>
+        <v>9.7078402366863898E-3</v>
+      </c>
+      <c r="M215" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2407544378698214E-3</v>
+      </c>
+      <c r="N215" s="8">
+        <f t="shared" si="1"/>
+        <v>3.8137943786982244E-3</v>
+      </c>
+      <c r="O215" s="8">
+        <f t="shared" si="2"/>
+        <v>3.467085798816568E-3</v>
+      </c>
+      <c r="P215" s="10">
+        <f t="shared" si="3"/>
+        <v>2.4269600591715975E-3</v>
+      </c>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="10">
+        <f>SUM(G215:P215)</f>
+        <v>7.2115384615384609E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>3</v>
+      </c>
+      <c r="B216" s="8">
+        <f>COUNTIF(B2:B209,"3")</f>
+        <v>22</v>
+      </c>
+      <c r="C216" s="10">
+        <f>COUNTIF(C2:C209,"3")</f>
+        <v>21</v>
+      </c>
+      <c r="E216" s="3"/>
+      <c r="F216" s="4">
+        <v>3</v>
+      </c>
+      <c r="G216" s="7">
+        <f>(B$213/B$212)*(C$216/B$212)</f>
+        <v>1.6503328402366863E-2</v>
+      </c>
+      <c r="H216" s="8">
+        <f>(B$214/B$212)*(C216/B$212)</f>
+        <v>1.067862426035503E-2</v>
+      </c>
+      <c r="I216" s="8">
+        <f>(B$215/B$212)*(C216/B$212)</f>
+        <v>1.2620192307692308E-2</v>
+      </c>
+      <c r="J216" s="8">
+        <f>(B$216/B$212)*(C216/B$212)</f>
+        <v>1.067862426035503E-2</v>
+      </c>
+      <c r="K216" s="8">
+        <f>(B$217/B$212)*(C216/B$212)</f>
+        <v>1.4561760355029586E-2</v>
+      </c>
+      <c r="L216" s="8">
+        <f>(B$218/B$212)*(C216/B$212)</f>
+        <v>1.3590976331360947E-2</v>
+      </c>
+      <c r="M216" s="8">
+        <f t="shared" si="0"/>
+        <v>8.737056213017751E-3</v>
+      </c>
+      <c r="N216" s="8">
+        <f t="shared" si="1"/>
+        <v>5.3393121301775152E-3</v>
+      </c>
+      <c r="O216" s="8">
+        <f t="shared" si="2"/>
+        <v>4.8539201183431958E-3</v>
+      </c>
+      <c r="P216" s="10">
+        <f t="shared" si="3"/>
+        <v>3.3977440828402367E-3</v>
+      </c>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="10">
+        <f>SUM(G216:P216)</f>
+        <v>0.10096153846153846</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="B217" s="8">
+        <f>COUNTIF(B2:B209,"2.67")</f>
+        <v>30</v>
+      </c>
+      <c r="C217" s="10">
+        <f>COUNTIF(C2:C209,"2.67")</f>
+        <v>27</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="G217" s="7">
+        <f>(B$213/B$212)*(C$217/B$212)</f>
+        <v>2.1218565088757399E-2</v>
+      </c>
+      <c r="H217" s="8">
+        <f>(B$214/B$212)*(C217/B$212)</f>
+        <v>1.372965976331361E-2</v>
+      </c>
+      <c r="I217" s="8">
+        <f>(B$215/B$212)*(C217/B$212)</f>
+        <v>1.622596153846154E-2</v>
+      </c>
+      <c r="J217" s="8">
+        <f>(B$216/B$212)*(C217/B$212)</f>
+        <v>1.372965976331361E-2</v>
+      </c>
+      <c r="K217" s="8">
+        <f>(B$217/B$212)*(C217/B$212)</f>
+        <v>1.8722263313609468E-2</v>
+      </c>
+      <c r="L217" s="8">
+        <f>(B$218/B$212)*(C217/B$212)</f>
+        <v>1.7474112426035502E-2</v>
+      </c>
+      <c r="M217" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1233357988165681E-2</v>
+      </c>
+      <c r="N217" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8648298816568051E-3</v>
+      </c>
+      <c r="O217" s="8">
+        <f t="shared" si="2"/>
+        <v>6.2407544378698231E-3</v>
+      </c>
+      <c r="P217" s="10">
+        <f t="shared" si="3"/>
+        <v>4.3685281065088755E-3</v>
+      </c>
+      <c r="Q217" s="7"/>
+      <c r="R217" s="10">
+        <f>SUM(G217:P217)</f>
+        <v>0.12980769230769232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="B218" s="8">
+        <f>COUNTIF(B2:B209,"2.33")</f>
+        <v>28</v>
+      </c>
+      <c r="C218" s="10">
+        <f>COUNTIF(C2:C209,"2.33")</f>
+        <v>34</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="G218" s="7">
+        <f>(B$213/B$212)*(C$218/B$212)</f>
+        <v>2.6719674556213019E-2</v>
+      </c>
+      <c r="H218" s="8">
+        <f>(B$214/B$212)*(C218/B$212)</f>
+        <v>1.7289201183431954E-2</v>
+      </c>
+      <c r="I218" s="8">
+        <f>(B$215/B$212)*(C218/B$212)</f>
+        <v>2.0432692307692308E-2</v>
+      </c>
+      <c r="J218" s="8">
+        <f>(B$216/B$212)*(C218/B$212)</f>
+        <v>1.7289201183431954E-2</v>
+      </c>
+      <c r="K218" s="8">
+        <f>(B$217/B$212)*(C218/B$212)</f>
+        <v>2.3576183431952662E-2</v>
+      </c>
+      <c r="L218" s="8">
+        <f>(B$218/B$212)*(C218/B$212)</f>
+        <v>2.2004437869822483E-2</v>
+      </c>
+      <c r="M218" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4145710059171597E-2</v>
+      </c>
+      <c r="N218" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6446005917159771E-3</v>
+      </c>
+      <c r="O218" s="8">
+        <f t="shared" si="2"/>
+        <v>7.8587278106508878E-3</v>
+      </c>
+      <c r="P218" s="10">
+        <f t="shared" si="3"/>
+        <v>5.5011094674556208E-3</v>
+      </c>
+      <c r="Q218" s="7"/>
+      <c r="R218" s="10">
+        <f>SUM(G218:P218)</f>
+        <v>0.16346153846153846</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>2</v>
+      </c>
+      <c r="B219" s="8">
+        <f>COUNTIF(B2:B209,"2")</f>
+        <v>18</v>
+      </c>
+      <c r="C219" s="10">
+        <f>COUNTIF(C2:C209,"2")</f>
+        <v>33</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="4">
+        <v>2</v>
+      </c>
+      <c r="G219" s="7">
+        <f>(B$213/B$212)*(C$219/B$212)</f>
+        <v>2.5933801775147928E-2</v>
+      </c>
+      <c r="H219" s="8">
+        <f>(B$214/B$212)*(C219/B$212)</f>
+        <v>1.6780695266272187E-2</v>
+      </c>
+      <c r="I219" s="8">
+        <f>(B$215/B$212)*(C219/B$212)</f>
+        <v>1.9831730769230768E-2</v>
+      </c>
+      <c r="J219" s="8">
+        <f>(B$216/B$212)*(C219/B$212)</f>
+        <v>1.6780695266272187E-2</v>
+      </c>
+      <c r="K219" s="8">
+        <f>(B$217/B$212)*(C219/B$212)</f>
+        <v>2.2882766272189346E-2</v>
+      </c>
+      <c r="L219" s="8">
+        <f>(B$218/B$212)*(C219/B$212)</f>
+        <v>2.1357248520710057E-2</v>
+      </c>
+      <c r="M219" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3729659763313608E-2</v>
+      </c>
+      <c r="N219" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3903476331360933E-3</v>
+      </c>
+      <c r="O219" s="8">
+        <f t="shared" si="2"/>
+        <v>7.6275887573964496E-3</v>
+      </c>
+      <c r="P219" s="10">
+        <f t="shared" si="3"/>
+        <v>5.3393121301775143E-3</v>
+      </c>
+      <c r="Q219" s="7"/>
+      <c r="R219" s="10">
+        <f>SUM(G219:P219)</f>
+        <v>0.15865384615384615</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="B220" s="8">
+        <f>COUNTIF(B2:B209,"1.67")</f>
+        <v>11</v>
+      </c>
+      <c r="C220" s="10">
+        <f>COUNTIF(C2:C209,"1.67")</f>
+        <v>31</v>
+      </c>
+      <c r="E220" s="3"/>
+      <c r="F220" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G220" s="7">
+        <f>(B$213/B$212)*(C$220/B$212)</f>
+        <v>2.4362056213017753E-2</v>
+      </c>
+      <c r="H220" s="8">
+        <f>(B$214/B$212)*(C220/B$212)</f>
+        <v>1.5763683431952662E-2</v>
+      </c>
+      <c r="I220" s="8">
+        <f>(B$215/B$212)*(C220/B$212)</f>
+        <v>1.8629807692307692E-2</v>
+      </c>
+      <c r="J220" s="8">
+        <f>(B$216/B$212)*(C220/B$212)</f>
+        <v>1.5763683431952662E-2</v>
+      </c>
+      <c r="K220" s="8">
+        <f>(B$217/B$212)*(C220/B$212)</f>
+        <v>2.1495931952662719E-2</v>
+      </c>
+      <c r="L220" s="8">
+        <f>(B$218/B$212)*(C220/B$212)</f>
+        <v>2.0062869822485205E-2</v>
+      </c>
+      <c r="M220" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2897559171597633E-2</v>
+      </c>
+      <c r="N220" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8818417159763308E-3</v>
+      </c>
+      <c r="O220" s="8">
+        <f t="shared" si="2"/>
+        <v>7.1653106508875741E-3</v>
+      </c>
+      <c r="P220" s="10">
+        <f t="shared" si="3"/>
+        <v>5.0157174556213014E-3</v>
+      </c>
+      <c r="Q220" s="7"/>
+      <c r="R220" s="10">
+        <f>SUM(G220:P220)</f>
+        <v>0.14903846153846154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="B221" s="8">
+        <f>COUNTIF(B2:B209,"1.33")</f>
+        <v>10</v>
+      </c>
+      <c r="C221" s="10">
+        <f>COUNTIF(C2:C209,"1.33")</f>
+        <v>19</v>
+      </c>
+      <c r="E221" s="3"/>
+      <c r="F221" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="G221" s="7">
+        <f>(B$213/B$212)*(C$221/B$212)</f>
+        <v>1.4931582840236686E-2</v>
+      </c>
+      <c r="H221" s="8">
+        <f>(B$214/B$212)*(C221/B$212)</f>
+        <v>9.661612426035502E-3</v>
+      </c>
+      <c r="I221" s="8">
+        <f>(B$215/B$212)*(C221/B$212)</f>
+        <v>1.141826923076923E-2</v>
+      </c>
+      <c r="J221" s="8">
+        <f>(B$216/B$212)*(C221/B$212)</f>
+        <v>9.661612426035502E-3</v>
+      </c>
+      <c r="K221" s="8">
+        <f>(B$217/B$212)*(C221/B$212)</f>
+        <v>1.3174926035502956E-2</v>
+      </c>
+      <c r="L221" s="8">
+        <f>(B$218/B$212)*(C221/B$212)</f>
+        <v>1.2296597633136093E-2</v>
+      </c>
+      <c r="M221" s="8">
+        <f t="shared" si="0"/>
+        <v>7.9049556213017739E-3</v>
+      </c>
+      <c r="N221" s="8">
+        <f t="shared" si="1"/>
+        <v>4.830806213017751E-3</v>
+      </c>
+      <c r="O221" s="8">
+        <f t="shared" si="2"/>
+        <v>4.3916420118343194E-3</v>
+      </c>
+      <c r="P221" s="10">
+        <f t="shared" si="3"/>
+        <v>3.0741494082840233E-3</v>
+      </c>
+      <c r="Q221" s="7"/>
+      <c r="R221" s="10">
+        <f>SUM(G221:P221)</f>
+        <v>9.1346153846153869E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1">
+        <f>COUNTIF(B2:B209,"1")</f>
+        <v>7</v>
+      </c>
+      <c r="C222" s="12">
+        <f>COUNTIF(C2:C209,"1")</f>
+        <v>7</v>
+      </c>
+      <c r="E222" s="3"/>
+      <c r="F222" s="4">
+        <v>1</v>
+      </c>
+      <c r="G222" s="11">
+        <f>(B$213/B$212)*(C$222/B$212)</f>
+        <v>5.5011094674556208E-3</v>
+      </c>
+      <c r="H222" s="1">
+        <f>(B$214/B$212)*(C222/B$212)</f>
+        <v>3.5595414201183432E-3</v>
+      </c>
+      <c r="I222" s="1">
+        <f>(B$215/B$212)*(C222/B$212)</f>
+        <v>4.206730769230769E-3</v>
+      </c>
+      <c r="J222" s="1">
+        <f>(B$216/B$212)*(C222/B$212)</f>
+        <v>3.5595414201183432E-3</v>
+      </c>
+      <c r="K222" s="1">
+        <f>(B$217/B$212)*(C222/B$212)</f>
+        <v>4.8539201183431949E-3</v>
+      </c>
+      <c r="L222" s="1">
+        <f>(B$218/B$212)*(C222/B$212)</f>
+        <v>4.530325443786982E-3</v>
+      </c>
+      <c r="M222" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9123520710059169E-3</v>
+      </c>
+      <c r="N222" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7797707100591716E-3</v>
+      </c>
+      <c r="O222" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6179733727810651E-3</v>
+      </c>
+      <c r="P222" s="12">
+        <f t="shared" si="3"/>
+        <v>1.1325813609467455E-3</v>
+      </c>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="12">
+        <f>SUM(G222:P222)</f>
+        <v>3.3653846153846152E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G223" s="5"/>
+      <c r="P223" s="9"/>
+      <c r="Q223" s="16">
+        <f>SUM(R213:R222)</f>
+        <v>1</v>
+      </c>
+      <c r="R223" s="17"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G224" s="11">
+        <f>SUM(G213:G222)</f>
+        <v>0.16346153846153846</v>
+      </c>
+      <c r="H224" s="1">
+        <f>SUM(H213:H222)</f>
+        <v>0.10576923076923077</v>
+      </c>
+      <c r="I224" s="1">
+        <f>SUM(I213:I222)</f>
+        <v>0.125</v>
+      </c>
+      <c r="J224" s="1">
+        <f>SUM(J213:J222)</f>
+        <v>0.10576923076923077</v>
+      </c>
+      <c r="K224" s="1">
+        <f>SUM(K213:K222)</f>
+        <v>0.14423076923076925</v>
+      </c>
+      <c r="L224" s="1">
+        <f>SUM(L213:L222)</f>
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="M224" s="1">
+        <f>SUM(M213:M222)</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="N224" s="1">
+        <f>SUM(N213:N222)</f>
+        <v>5.2884615384615384E-2</v>
+      </c>
+      <c r="O224" s="1">
+        <f>SUM(O213:O222)</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="P224" s="12">
+        <f>SUM(P213:P222)</f>
+        <v>3.3653846153846152E-2</v>
+      </c>
+      <c r="Q224" s="18"/>
+      <c r="R224" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E213:E222"/>
+    <mergeCell ref="G211:P211"/>
+    <mergeCell ref="E211:F212"/>
+    <mergeCell ref="Q223:R224"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R224"/>
+  <sheetViews>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2.67</v>
+      </c>
+      <c r="C2">
+        <v>2.33</v>
+      </c>
+      <c r="F2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.67</v>
+      </c>
+      <c r="C3">
+        <v>2.67</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2.67</v>
+      </c>
+      <c r="C7">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2.33</v>
+      </c>
+      <c r="C8">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3.67</v>
+      </c>
+      <c r="C9">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.67</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2.67</v>
+      </c>
+      <c r="C13">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.67</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2.33</v>
+      </c>
+      <c r="C17">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2.67</v>
+      </c>
+      <c r="C18">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.67</v>
+      </c>
+      <c r="C21">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>2.33</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2.67</v>
+      </c>
+      <c r="C23">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>3.67</v>
+      </c>
+      <c r="C28">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2.33</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>2.67</v>
+      </c>
+      <c r="C32">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>2.67</v>
+      </c>
+      <c r="C33">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>2.67</v>
+      </c>
+      <c r="C34">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>2.33</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>1.33</v>
+      </c>
+      <c r="C36">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>1.67</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>2.67</v>
+      </c>
+      <c r="C40">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>3.67</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>2.33</v>
+      </c>
+      <c r="C43">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>1.67</v>
+      </c>
+      <c r="C44">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>1.33</v>
+      </c>
+      <c r="C46">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>3.33</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>2.67</v>
+      </c>
+      <c r="C49">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>2.67</v>
+      </c>
+      <c r="C50">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>2.33</v>
+      </c>
+      <c r="C51">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>1.67</v>
+      </c>
+      <c r="C52">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>2.67</v>
+      </c>
+      <c r="C54">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>2.33</v>
+      </c>
+      <c r="C58">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>2.33</v>
+      </c>
+      <c r="C59">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>3.33</v>
+      </c>
+      <c r="C60">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>2.33</v>
+      </c>
+      <c r="C62">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>2.33</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>3.67</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>2.33</v>
+      </c>
+      <c r="C68">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>1.67</v>
+      </c>
+      <c r="C73">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>2.67</v>
+      </c>
+      <c r="C76">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>2.33</v>
+      </c>
+      <c r="C77">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>2.33</v>
+      </c>
+      <c r="C78">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>1.33</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>1.33</v>
+      </c>
+      <c r="C84">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>2.67</v>
+      </c>
+      <c r="C87">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>3.33</v>
+      </c>
+      <c r="C88">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>2.33</v>
+      </c>
+      <c r="C91">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>1.33</v>
+      </c>
+      <c r="C92">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>1.67</v>
+      </c>
+      <c r="C95">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>3.33</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>1.67</v>
+      </c>
+      <c r="C97">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>3.33</v>
+      </c>
+      <c r="C99">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>1.33</v>
+      </c>
+      <c r="C101">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
+        <v>2.33</v>
+      </c>
+      <c r="C102">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>2.67</v>
+      </c>
+      <c r="C104">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>2.67</v>
+      </c>
+      <c r="C105">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
+        <v>2.67</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>1.67</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>2.33</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>1.67</v>
+      </c>
+      <c r="C110">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>2.33</v>
+      </c>
+      <c r="C112">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>2.33</v>
+      </c>
+      <c r="C113">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>1.33</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>2.33</v>
+      </c>
+      <c r="C116">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
+        <v>2.33</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>1.67</v>
+      </c>
+      <c r="C122">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>3.67</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
+        <v>2.33</v>
+      </c>
+      <c r="C124">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
+        <v>2.33</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
+        <v>2.33</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>2.33</v>
+      </c>
+      <c r="C127">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>2.67</v>
+      </c>
+      <c r="C129">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
+        <v>3.67</v>
+      </c>
+      <c r="C132">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>3.67</v>
+      </c>
+      <c r="C133">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136">
+        <v>2.33</v>
+      </c>
+      <c r="C136">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>1.33</v>
+      </c>
+      <c r="C137">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138">
+        <v>3.33</v>
+      </c>
+      <c r="C138">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>3.33</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>2.67</v>
+      </c>
+      <c r="C140">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>2.67</v>
+      </c>
+      <c r="C141">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>1.67</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>1.67</v>
+      </c>
+      <c r="C144">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>2.67</v>
+      </c>
+      <c r="C146">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147">
+        <v>1.67</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>3.33</v>
+      </c>
+      <c r="C149">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150">
+        <v>2.33</v>
+      </c>
+      <c r="C150">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>2.67</v>
+      </c>
+      <c r="C151">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>2.67</v>
+      </c>
+      <c r="C154">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>2.67</v>
+      </c>
+      <c r="C155">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>2.67</v>
+      </c>
+      <c r="C156">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>2.67</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158">
+        <v>1.67</v>
+      </c>
+      <c r="C158">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159">
+        <v>2.33</v>
+      </c>
+      <c r="C159">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>2.33</v>
+      </c>
+      <c r="C160">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161">
+        <v>2.67</v>
+      </c>
+      <c r="C161">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>1.67</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163">
+        <v>1.33</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164">
+        <v>1.67</v>
+      </c>
+      <c r="C164">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165">
+        <v>2.33</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166">
+        <v>1.33</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167">
+        <v>3.33</v>
+      </c>
+      <c r="C167">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169">
+        <v>2.67</v>
+      </c>
+      <c r="C169">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170">
+        <v>2.33</v>
+      </c>
+      <c r="C170">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171">
+        <v>1.67</v>
+      </c>
+      <c r="C171">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172">
+        <v>1.67</v>
+      </c>
+      <c r="C172">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173">
+        <v>1.33</v>
+      </c>
+      <c r="C173">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174">
+        <v>2.67</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>2.67</v>
+      </c>
+      <c r="C177">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>2.33</v>
+      </c>
+      <c r="C179">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>3.67</v>
+      </c>
+      <c r="C180">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>3.33</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>2.67</v>
+      </c>
+      <c r="C182">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183">
+        <v>1.67</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189">
+        <v>2.67</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190">
+        <v>2.33</v>
+      </c>
+      <c r="C190">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>204</v>
+      </c>
+      <c r="B191">
+        <v>2.67</v>
+      </c>
+      <c r="C191">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192">
+        <v>1.67</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193">
+        <v>1.67</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194">
+        <v>1.67</v>
+      </c>
+      <c r="C194">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198">
+        <v>2.67</v>
+      </c>
+      <c r="C198">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200">
+        <v>2.33</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201">
+        <v>2.67</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>222</v>
+      </c>
+      <c r="B202">
+        <v>2.33</v>
+      </c>
+      <c r="C202">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>262</v>
+      </c>
+      <c r="B207">
+        <v>1.67</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E211" s="2"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B212" s="20">
+        <f>SUM(B213:B231)</f>
+        <v>208</v>
+      </c>
+      <c r="C212" s="21">
+        <f>SUM(C213:C222)</f>
+        <v>208</v>
+      </c>
+      <c r="E212" s="14"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="4">
+        <v>4</v>
+      </c>
+      <c r="H212" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="I212" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="J212" s="4">
+        <v>3</v>
+      </c>
+      <c r="K212" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="L212" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="M212" s="4">
+        <v>2</v>
+      </c>
+      <c r="N212" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="O212" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="P212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>4</v>
+      </c>
+      <c r="B213" s="8">
+        <f>COUNTIF(B2:B209,"4")</f>
+        <v>14</v>
+      </c>
+      <c r="C213" s="10">
+        <f>COUNTIF(C2:C209,"4")</f>
+        <v>8</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F213" s="4">
+        <v>4</v>
+      </c>
+      <c r="G213" s="5">
+        <f>(B213/B212)*(C213/B212)</f>
+        <v>2.5887573964497044E-3</v>
+      </c>
+      <c r="H213" s="6">
+        <f>(B$214/B$212)*(C213/B$212)</f>
+        <v>1.4792899408284025E-3</v>
+      </c>
+      <c r="I213" s="6">
+        <f>(B$215/B$212)*(C213/B$212)</f>
+        <v>1.8491124260355031E-3</v>
+      </c>
+      <c r="J213" s="6">
+        <f>(B$216/B$212)*(C213/B$212)</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="K213" s="6">
+        <f>(B$217/B$212)*(C213/B$212)</f>
+        <v>7.0266272189349116E-3</v>
+      </c>
+      <c r="L213" s="6">
+        <f>(B$218/B$212)*(C213/B$212)</f>
+        <v>6.4718934911242613E-3</v>
+      </c>
+      <c r="M213" s="6">
+        <f>(B$219/B$212)*(C213/B$212)</f>
+        <v>6.4718934911242613E-3</v>
+      </c>
+      <c r="N213" s="6">
+        <f>(B$220/B$212)*(C213/B$212)</f>
+        <v>4.2529585798816568E-3</v>
+      </c>
+      <c r="O213" s="6">
+        <f>(B$221/B$212)*(C213/B$212)</f>
+        <v>2.0340236686390532E-3</v>
+      </c>
+      <c r="P213" s="9">
+        <f>(B$222/B$212)*(C213/B$212)</f>
+        <v>1.4792899408284025E-3</v>
+      </c>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="9">
+        <f>SUM(G213:P213)</f>
+        <v>3.8461538461538471E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="B214" s="8">
+        <f>COUNTIF(B2:B209,"3.67")</f>
+        <v>8</v>
+      </c>
+      <c r="C214" s="10">
+        <f>COUNTIF(C2:C209,"3.67")</f>
+        <v>13</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="F214" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="G214" s="7">
+        <f>(B$213/B$212)*(C$214/B$212)</f>
+        <v>4.206730769230769E-3</v>
+      </c>
+      <c r="H214" s="8">
+        <f>(B$214/B$212)*(C214/B$212)</f>
+        <v>2.403846153846154E-3</v>
+      </c>
+      <c r="I214" s="8">
+        <f>(B$215/B$212)*(C214/B$212)</f>
+        <v>3.0048076923076925E-3</v>
+      </c>
+      <c r="J214" s="8">
+        <f>(B$216/B$212)*(C214/B$212)</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K214" s="8">
+        <f>(B$217/B$212)*(C214/B$212)</f>
+        <v>1.141826923076923E-2</v>
+      </c>
+      <c r="L214" s="8">
+        <f>(B$218/B$212)*(C214/B$212)</f>
+        <v>1.0516826923076924E-2</v>
+      </c>
+      <c r="M214" s="8">
+        <f t="shared" ref="M214:M222" si="0">(B$219/B$212)*(C214/B$212)</f>
+        <v>1.0516826923076924E-2</v>
+      </c>
+      <c r="N214" s="8">
+        <f t="shared" ref="N214:N222" si="1">(B$220/B$212)*(C214/B$212)</f>
+        <v>6.911057692307692E-3</v>
+      </c>
+      <c r="O214" s="8">
+        <f t="shared" ref="O214:O222" si="2">(B$221/B$212)*(C214/B$212)</f>
+        <v>3.3052884615384615E-3</v>
+      </c>
+      <c r="P214" s="10">
+        <f t="shared" ref="P214:P222" si="3">(B$222/B$212)*(C214/B$212)</f>
+        <v>2.403846153846154E-3</v>
+      </c>
+      <c r="Q214" s="7"/>
+      <c r="R214" s="10">
+        <f>SUM(G214:P214)</f>
+        <v>6.2500000000000014E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="B215" s="8">
+        <f>COUNTIF(B2:B209,"3.33")</f>
+        <v>10</v>
+      </c>
+      <c r="C215" s="10">
+        <f>COUNTIF(C2:C209,"3.33")</f>
+        <v>15</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G215" s="7">
+        <f>(B$213/B$212)*(C$215/B$212)</f>
+        <v>4.8539201183431949E-3</v>
+      </c>
+      <c r="H215" s="8">
+        <f>(B$214/B$212)*(C215/B$212)</f>
+        <v>2.7736686390532543E-3</v>
+      </c>
+      <c r="I215" s="8">
+        <f>(B$215/B$212)*(C215/B$212)</f>
+        <v>3.467085798816568E-3</v>
+      </c>
+      <c r="J215" s="8">
+        <f>(B$216/B$212)*(C215/B$212)</f>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="K215" s="8">
+        <f>(B$217/B$212)*(C215/B$212)</f>
+        <v>1.3174926035502956E-2</v>
+      </c>
+      <c r="L215" s="8">
+        <f>(B$218/B$212)*(C215/B$212)</f>
+        <v>1.2134800295857989E-2</v>
+      </c>
+      <c r="M215" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2134800295857989E-2</v>
+      </c>
+      <c r="N215" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9742973372781047E-3</v>
+      </c>
+      <c r="O215" s="8">
+        <f t="shared" si="2"/>
+        <v>3.8137943786982244E-3</v>
+      </c>
+      <c r="P215" s="10">
+        <f t="shared" si="3"/>
+        <v>2.7736686390532543E-3</v>
+      </c>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="10">
+        <f>SUM(G215:P215)</f>
+        <v>7.2115384615384595E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>3</v>
+      </c>
+      <c r="B216" s="8">
+        <f>COUNTIF(B2:B209,"3")</f>
+        <v>26</v>
+      </c>
+      <c r="C216" s="10">
+        <f>COUNTIF(C2:C209,"3")</f>
+        <v>21</v>
+      </c>
+      <c r="E216" s="3"/>
+      <c r="F216" s="4">
+        <v>3</v>
+      </c>
+      <c r="G216" s="7">
+        <f>(B$213/B$212)*(C$216/B$212)</f>
+        <v>6.7954881656804734E-3</v>
+      </c>
+      <c r="H216" s="8">
+        <f>(B$214/B$212)*(C216/B$212)</f>
+        <v>3.8831360946745565E-3</v>
+      </c>
+      <c r="I216" s="8">
+        <f>(B$215/B$212)*(C216/B$212)</f>
+        <v>4.8539201183431958E-3</v>
+      </c>
+      <c r="J216" s="8">
+        <f>(B$216/B$212)*(C216/B$212)</f>
+        <v>1.2620192307692308E-2</v>
+      </c>
+      <c r="K216" s="8">
+        <f>(B$217/B$212)*(C216/B$212)</f>
+        <v>1.8444896449704141E-2</v>
+      </c>
+      <c r="L216" s="8">
+        <f>(B$218/B$212)*(C216/B$212)</f>
+        <v>1.6988720414201186E-2</v>
+      </c>
+      <c r="M216" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6988720414201186E-2</v>
+      </c>
+      <c r="N216" s="8">
+        <f t="shared" si="1"/>
+        <v>1.116401627218935E-2</v>
+      </c>
+      <c r="O216" s="8">
+        <f t="shared" si="2"/>
+        <v>5.3393121301775152E-3</v>
+      </c>
+      <c r="P216" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8831360946745565E-3</v>
+      </c>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="10">
+        <f>SUM(G216:P216)</f>
+        <v>0.10096153846153848</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="B217" s="8">
+        <f>COUNTIF(B2:B209,"2.67")</f>
+        <v>38</v>
+      </c>
+      <c r="C217" s="10">
+        <f>COUNTIF(C2:C209,"2.67")</f>
+        <v>27</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="G217" s="7">
+        <f>(B$213/B$212)*(C$217/B$212)</f>
+        <v>8.737056213017751E-3</v>
+      </c>
+      <c r="H217" s="8">
+        <f>(B$214/B$212)*(C217/B$212)</f>
+        <v>4.9926035502958583E-3</v>
+      </c>
+      <c r="I217" s="8">
+        <f>(B$215/B$212)*(C217/B$212)</f>
+        <v>6.2407544378698231E-3</v>
+      </c>
+      <c r="J217" s="8">
+        <f>(B$216/B$212)*(C217/B$212)</f>
+        <v>1.622596153846154E-2</v>
+      </c>
+      <c r="K217" s="8">
+        <f>(B$217/B$212)*(C217/B$212)</f>
+        <v>2.3714866863905327E-2</v>
+      </c>
+      <c r="L217" s="8">
+        <f>(B$218/B$212)*(C217/B$212)</f>
+        <v>2.1842640532544384E-2</v>
+      </c>
+      <c r="M217" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1842640532544384E-2</v>
+      </c>
+      <c r="N217" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4353735207100593E-2</v>
+      </c>
+      <c r="O217" s="8">
+        <f t="shared" si="2"/>
+        <v>6.8648298816568051E-3</v>
+      </c>
+      <c r="P217" s="10">
+        <f t="shared" si="3"/>
+        <v>4.9926035502958583E-3</v>
+      </c>
+      <c r="Q217" s="7"/>
+      <c r="R217" s="10">
+        <f>SUM(G217:P217)</f>
+        <v>0.12980769230769232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="B218" s="8">
+        <f>COUNTIF(B2:B209,"2.33")</f>
+        <v>35</v>
+      </c>
+      <c r="C218" s="10">
+        <f>COUNTIF(C2:C209,"2.33")</f>
+        <v>34</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="G218" s="7">
+        <f>(B$213/B$212)*(C$218/B$212)</f>
+        <v>1.1002218934911242E-2</v>
+      </c>
+      <c r="H218" s="8">
+        <f>(B$214/B$212)*(C218/B$212)</f>
+        <v>6.2869822485207101E-3</v>
+      </c>
+      <c r="I218" s="8">
+        <f>(B$215/B$212)*(C218/B$212)</f>
+        <v>7.8587278106508878E-3</v>
+      </c>
+      <c r="J218" s="8">
+        <f>(B$216/B$212)*(C218/B$212)</f>
+        <v>2.0432692307692308E-2</v>
+      </c>
+      <c r="K218" s="8">
+        <f>(B$217/B$212)*(C218/B$212)</f>
+        <v>2.9863165680473373E-2</v>
+      </c>
+      <c r="L218" s="8">
+        <f>(B$218/B$212)*(C218/B$212)</f>
+        <v>2.750554733727811E-2</v>
+      </c>
+      <c r="M218" s="8">
+        <f t="shared" si="0"/>
+        <v>2.750554733727811E-2</v>
+      </c>
+      <c r="N218" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8075073964497042E-2</v>
+      </c>
+      <c r="O218" s="8">
+        <f t="shared" si="2"/>
+        <v>8.6446005917159771E-3</v>
+      </c>
+      <c r="P218" s="10">
+        <f t="shared" si="3"/>
+        <v>6.2869822485207101E-3</v>
+      </c>
+      <c r="Q218" s="7"/>
+      <c r="R218" s="10">
+        <f>SUM(G218:P218)</f>
+        <v>0.16346153846153846</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>2</v>
+      </c>
+      <c r="B219" s="8">
+        <f>COUNTIF(B2:B209,"2")</f>
+        <v>35</v>
+      </c>
+      <c r="C219" s="10">
+        <f>COUNTIF(C2:C209,"2")</f>
+        <v>33</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="4">
+        <v>2</v>
+      </c>
+      <c r="G219" s="7">
+        <f>(B$213/B$212)*(C$219/B$212)</f>
+        <v>1.0678624260355029E-2</v>
+      </c>
+      <c r="H219" s="8">
+        <f>(B$214/B$212)*(C219/B$212)</f>
+        <v>6.1020710059171597E-3</v>
+      </c>
+      <c r="I219" s="8">
+        <f>(B$215/B$212)*(C219/B$212)</f>
+        <v>7.6275887573964496E-3</v>
+      </c>
+      <c r="J219" s="8">
+        <f>(B$216/B$212)*(C219/B$212)</f>
+        <v>1.9831730769230768E-2</v>
+      </c>
+      <c r="K219" s="8">
+        <f>(B$217/B$212)*(C219/B$212)</f>
+        <v>2.8984837278106506E-2</v>
+      </c>
+      <c r="L219" s="8">
+        <f>(B$218/B$212)*(C219/B$212)</f>
+        <v>2.6696560650887574E-2</v>
+      </c>
+      <c r="M219" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6696560650887574E-2</v>
+      </c>
+      <c r="N219" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7543454142011833E-2</v>
+      </c>
+      <c r="O219" s="8">
+        <f t="shared" si="2"/>
+        <v>8.3903476331360933E-3</v>
+      </c>
+      <c r="P219" s="10">
+        <f t="shared" si="3"/>
+        <v>6.1020710059171597E-3</v>
+      </c>
+      <c r="Q219" s="7"/>
+      <c r="R219" s="10">
+        <f>SUM(G219:P219)</f>
+        <v>0.15865384615384617</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="B220" s="8">
+        <f>COUNTIF(B2:B209,"1.67")</f>
+        <v>23</v>
+      </c>
+      <c r="C220" s="10">
+        <f>COUNTIF(C2:C209,"1.67")</f>
+        <v>31</v>
+      </c>
+      <c r="E220" s="3"/>
+      <c r="F220" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G220" s="7">
+        <f>(B$213/B$212)*(C$220/B$212)</f>
+        <v>1.0031434911242603E-2</v>
+      </c>
+      <c r="H220" s="8">
+        <f>(B$214/B$212)*(C220/B$212)</f>
+        <v>5.7322485207100598E-3</v>
+      </c>
+      <c r="I220" s="8">
+        <f>(B$215/B$212)*(C220/B$212)</f>
+        <v>7.1653106508875741E-3</v>
+      </c>
+      <c r="J220" s="8">
+        <f>(B$216/B$212)*(C220/B$212)</f>
+        <v>1.8629807692307692E-2</v>
+      </c>
+      <c r="K220" s="8">
+        <f>(B$217/B$212)*(C220/B$212)</f>
+        <v>2.722818047337278E-2</v>
+      </c>
+      <c r="L220" s="8">
+        <f>(B$218/B$212)*(C220/B$212)</f>
+        <v>2.5078587278106509E-2</v>
+      </c>
+      <c r="M220" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5078587278106509E-2</v>
+      </c>
+      <c r="N220" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6480214497041418E-2</v>
+      </c>
+      <c r="O220" s="8">
+        <f t="shared" si="2"/>
+        <v>7.8818417159763308E-3</v>
+      </c>
+      <c r="P220" s="10">
+        <f t="shared" si="3"/>
+        <v>5.7322485207100598E-3</v>
+      </c>
+      <c r="Q220" s="7"/>
+      <c r="R220" s="10">
+        <f>SUM(G220:P220)</f>
+        <v>0.14903846153846154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="B221" s="8">
+        <f>COUNTIF(B2:B209,"1.33")</f>
+        <v>11</v>
+      </c>
+      <c r="C221" s="10">
+        <f>COUNTIF(C2:C209,"1.33")</f>
+        <v>19</v>
+      </c>
+      <c r="E221" s="3"/>
+      <c r="F221" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="G221" s="7">
+        <f>(B$213/B$212)*(C$221/B$212)</f>
+        <v>6.1482988165680466E-3</v>
+      </c>
+      <c r="H221" s="8">
+        <f>(B$214/B$212)*(C221/B$212)</f>
+        <v>3.5133136094674558E-3</v>
+      </c>
+      <c r="I221" s="8">
+        <f>(B$215/B$212)*(C221/B$212)</f>
+        <v>4.3916420118343194E-3</v>
+      </c>
+      <c r="J221" s="8">
+        <f>(B$216/B$212)*(C221/B$212)</f>
+        <v>1.141826923076923E-2</v>
+      </c>
+      <c r="K221" s="8">
+        <f>(B$217/B$212)*(C221/B$212)</f>
+        <v>1.6688239644970411E-2</v>
+      </c>
+      <c r="L221" s="8">
+        <f>(B$218/B$212)*(C221/B$212)</f>
+        <v>1.5370747041420118E-2</v>
+      </c>
+      <c r="M221" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5370747041420118E-2</v>
+      </c>
+      <c r="N221" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0100776627218934E-2</v>
+      </c>
+      <c r="O221" s="8">
+        <f t="shared" si="2"/>
+        <v>4.830806213017751E-3</v>
+      </c>
+      <c r="P221" s="10">
+        <f t="shared" si="3"/>
+        <v>3.5133136094674558E-3</v>
+      </c>
+      <c r="Q221" s="7"/>
+      <c r="R221" s="10">
+        <f>SUM(G221:P221)</f>
+        <v>9.1346153846153841E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1">
+        <f>COUNTIF(B2:B209,"1")</f>
+        <v>8</v>
+      </c>
+      <c r="C222" s="12">
+        <f>COUNTIF(C2:C209,"1")</f>
+        <v>7</v>
+      </c>
+      <c r="E222" s="3"/>
+      <c r="F222" s="4">
+        <v>1</v>
+      </c>
+      <c r="G222" s="11">
+        <f>(B$213/B$212)*(C$222/B$212)</f>
+        <v>2.265162721893491E-3</v>
+      </c>
+      <c r="H222" s="1">
+        <f>(B$214/B$212)*(C222/B$212)</f>
+        <v>1.2943786982248522E-3</v>
+      </c>
+      <c r="I222" s="1">
+        <f>(B$215/B$212)*(C222/B$212)</f>
+        <v>1.6179733727810651E-3</v>
+      </c>
+      <c r="J222" s="1">
+        <f>(B$216/B$212)*(C222/B$212)</f>
+        <v>4.206730769230769E-3</v>
+      </c>
+      <c r="K222" s="1">
+        <f>(B$217/B$212)*(C222/B$212)</f>
+        <v>6.1482988165680466E-3</v>
+      </c>
+      <c r="L222" s="1">
+        <f>(B$218/B$212)*(C222/B$212)</f>
+        <v>5.6629068047337281E-3</v>
+      </c>
+      <c r="M222" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6629068047337281E-3</v>
+      </c>
+      <c r="N222" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7213387573964492E-3</v>
+      </c>
+      <c r="O222" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7797707100591716E-3</v>
+      </c>
+      <c r="P222" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2943786982248522E-3</v>
+      </c>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="12">
+        <f>SUM(G222:P222)</f>
+        <v>3.3653846153846152E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G223" s="5"/>
+      <c r="P223" s="9"/>
+      <c r="Q223" s="16">
+        <f>SUM(R213:R222)</f>
+        <v>1</v>
+      </c>
+      <c r="R223" s="17"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G224" s="11">
+        <f>SUM(G213:G222)</f>
+        <v>6.7307692307692304E-2</v>
+      </c>
+      <c r="H224" s="1">
+        <f>SUM(H213:H222)</f>
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="I224" s="1">
+        <f>SUM(I213:I222)</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="J224" s="1">
+        <f>SUM(J213:J222)</f>
+        <v>0.125</v>
+      </c>
+      <c r="K224" s="1">
+        <f>SUM(K213:K222)</f>
+        <v>0.18269230769230768</v>
+      </c>
+      <c r="L224" s="1">
+        <f>SUM(L213:L222)</f>
+        <v>0.16826923076923075</v>
+      </c>
+      <c r="M224" s="1">
+        <f>SUM(M213:M222)</f>
+        <v>0.16826923076923075</v>
+      </c>
+      <c r="N224" s="1">
+        <f>SUM(N213:N222)</f>
+        <v>0.11057692307692309</v>
+      </c>
+      <c r="O224" s="1">
+        <f>SUM(O213:O222)</f>
+        <v>5.2884615384615384E-2</v>
+      </c>
+      <c r="P224" s="12">
+        <f>SUM(P213:P222)</f>
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="Q224" s="18"/>
+      <c r="R224" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E211:F212"/>
+    <mergeCell ref="G211:P211"/>
+    <mergeCell ref="E213:E222"/>
+    <mergeCell ref="Q223:R224"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R224"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="K205" sqref="K205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.33</v>
+      </c>
+      <c r="C2">
+        <v>2.33</v>
+      </c>
+      <c r="F2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.67</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.67</v>
+      </c>
+      <c r="C4">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3.67</v>
+      </c>
+      <c r="C7">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2.67</v>
+      </c>
+      <c r="C8">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1.33</v>
+      </c>
+      <c r="C10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.67</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2.33</v>
+      </c>
+      <c r="C12">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>3.33</v>
+      </c>
+      <c r="C13">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.67</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2.33</v>
+      </c>
+      <c r="C15">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>1.33</v>
+      </c>
+      <c r="C18">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>3.67</v>
+      </c>
+      <c r="C19">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.67</v>
+      </c>
+      <c r="C21">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>2.33</v>
+      </c>
+      <c r="C24">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>2.67</v>
+      </c>
+      <c r="C25">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>2.33</v>
+      </c>
+      <c r="C26">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2.33</v>
+      </c>
+      <c r="C27">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>3.33</v>
+      </c>
+      <c r="C28">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>1.67</v>
+      </c>
+      <c r="C30">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>2.33</v>
+      </c>
+      <c r="C32">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>2.67</v>
+      </c>
+      <c r="C33">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>2.67</v>
+      </c>
+      <c r="C34">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>1.67</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>2.33</v>
+      </c>
+      <c r="C36">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>2.67</v>
+      </c>
+      <c r="C42">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>2.67</v>
+      </c>
+      <c r="C43">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>1.67</v>
+      </c>
+      <c r="C44">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>2.67</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>2.33</v>
+      </c>
+      <c r="C46">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>3.67</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>1.67</v>
+      </c>
+      <c r="C49">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>2.67</v>
+      </c>
+      <c r="C51">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>2.67</v>
+      </c>
+      <c r="C52">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>3.33</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>3.33</v>
+      </c>
+      <c r="C54">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>3.33</v>
+      </c>
+      <c r="C58">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>2.33</v>
+      </c>
+      <c r="C59">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>2.33</v>
+      </c>
+      <c r="C61">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>2.33</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>3.67</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>3.67</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>1.67</v>
+      </c>
+      <c r="C68">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>2.33</v>
+      </c>
+      <c r="C70">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>2.67</v>
+      </c>
+      <c r="C71">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>2.67</v>
+      </c>
+      <c r="C72">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>1.67</v>
+      </c>
+      <c r="C73">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>2.67</v>
+      </c>
+      <c r="C75">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>3.33</v>
+      </c>
+      <c r="C76">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>1.33</v>
+      </c>
+      <c r="C77">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>3.67</v>
+      </c>
+      <c r="C78">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>2.33</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>2.33</v>
+      </c>
+      <c r="C80">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>2.67</v>
+      </c>
+      <c r="C81">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>1.67</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>3.33</v>
+      </c>
+      <c r="C84">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>2.67</v>
+      </c>
+      <c r="C86">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>1.67</v>
+      </c>
+      <c r="C88">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>3.67</v>
+      </c>
+      <c r="C92">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>3.67</v>
+      </c>
+      <c r="C93">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>1.33</v>
+      </c>
+      <c r="C95">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>3.33</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>3.33</v>
+      </c>
+      <c r="C99">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>2.33</v>
+      </c>
+      <c r="C100">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>2.33</v>
+      </c>
+      <c r="C101">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
+        <v>3.33</v>
+      </c>
+      <c r="C102">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>2.33</v>
+      </c>
+      <c r="C103">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
+        <v>2.67</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
+        <v>1.33</v>
+      </c>
+      <c r="C107">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>3.67</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>1.67</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>3.67</v>
+      </c>
+      <c r="C110">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>2.33</v>
+      </c>
+      <c r="C111">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>2.67</v>
+      </c>
+      <c r="C113">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>2.67</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>2.67</v>
+      </c>
+      <c r="C115">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>3.67</v>
+      </c>
+      <c r="C116">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>1.33</v>
+      </c>
+      <c r="C117">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>1.33</v>
+      </c>
+      <c r="C118">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
+        <v>3.67</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>1.67</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>3.67</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
+        <v>3.67</v>
+      </c>
+      <c r="C124">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
+        <v>3.33</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
+        <v>2.33</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>3.33</v>
+      </c>
+      <c r="C127">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>3.67</v>
+      </c>
+      <c r="C129">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>3.33</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>2.67</v>
+      </c>
+      <c r="C135">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>2.33</v>
+      </c>
+      <c r="C140">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142">
+        <v>2.33</v>
+      </c>
+      <c r="C142">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>2.33</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>1.33</v>
+      </c>
+      <c r="C144">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>3.67</v>
+      </c>
+      <c r="C146">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147">
+        <v>1.67</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>2.67</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150">
+        <v>1.67</v>
+      </c>
+      <c r="C150">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>3.33</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>1.67</v>
+      </c>
+      <c r="C154">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>3.33</v>
+      </c>
+      <c r="C155">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>3.33</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159">
+        <v>1.67</v>
+      </c>
+      <c r="C159">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>1.67</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163">
+        <v>1.67</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164">
+        <v>2.67</v>
+      </c>
+      <c r="C164">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165">
+        <v>3.33</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169">
+        <v>2.33</v>
+      </c>
+      <c r="C169">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170">
+        <v>2.33</v>
+      </c>
+      <c r="C170">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173">
+        <v>2.33</v>
+      </c>
+      <c r="C173">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>2.67</v>
+      </c>
+      <c r="C175">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>1.33</v>
+      </c>
+      <c r="C177">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>3.67</v>
+      </c>
+      <c r="C179">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>2.33</v>
+      </c>
+      <c r="C180">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>3.33</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>2.67</v>
+      </c>
+      <c r="C182">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183">
+        <v>3.33</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185">
+        <v>3.67</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187">
+        <v>3.33</v>
+      </c>
+      <c r="C187">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189">
+        <v>3.33</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190">
+        <v>1.67</v>
+      </c>
+      <c r="C190">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>204</v>
+      </c>
+      <c r="B191">
+        <v>1.33</v>
+      </c>
+      <c r="C191">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192">
+        <v>2.33</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193">
+        <v>2.67</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194">
+        <v>3.33</v>
+      </c>
+      <c r="C194">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195">
+        <v>2.33</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196">
+        <v>3.33</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198">
+        <v>3.33</v>
+      </c>
+      <c r="C198">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199">
+        <v>2.33</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200">
+        <v>3.33</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>222</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204">
+        <v>1.33</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206">
+        <v>2.33</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>262</v>
+      </c>
+      <c r="B207">
+        <v>1.67</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208">
+        <v>2.67</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209">
+        <v>2.67</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E211" s="2"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B212" s="20">
+        <f>SUM(B213:B231)</f>
+        <v>208</v>
+      </c>
+      <c r="C212" s="21">
+        <f>SUM(C213:C222)</f>
+        <v>208</v>
+      </c>
+      <c r="E212" s="14"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="4">
+        <v>4</v>
+      </c>
+      <c r="H212" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="I212" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="J212" s="4">
+        <v>3</v>
+      </c>
+      <c r="K212" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="L212" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="M212" s="4">
+        <v>2</v>
+      </c>
+      <c r="N212" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="O212" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="P212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>4</v>
+      </c>
+      <c r="B213" s="8">
+        <f>COUNTIF(B2:B209,"4")</f>
+        <v>20</v>
+      </c>
+      <c r="C213" s="10">
+        <f>COUNTIF(C2:C209,"4")</f>
+        <v>8</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F213" s="4">
+        <v>4</v>
+      </c>
+      <c r="G213" s="5">
+        <f>(B213/B212)*(C213/B212)</f>
+        <v>3.6982248520710062E-3</v>
+      </c>
+      <c r="H213" s="6">
+        <f>(B$214/B$212)*(C213/B$212)</f>
+        <v>3.3284023668639054E-3</v>
+      </c>
+      <c r="I213" s="6">
+        <f>(B$215/B$212)*(C213/B$212)</f>
+        <v>4.6227810650887576E-3</v>
+      </c>
+      <c r="J213" s="6">
+        <f>(B$216/B$212)*(C213/B$212)</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="K213" s="6">
+        <f>(B$217/B$212)*(C213/B$212)</f>
+        <v>5.3624260355029591E-3</v>
+      </c>
+      <c r="L213" s="6">
+        <f>(B$218/B$212)*(C213/B$212)</f>
+        <v>5.5473372781065086E-3</v>
+      </c>
+      <c r="M213" s="6">
+        <f>(B$219/B$212)*(C213/B$212)</f>
+        <v>3.3284023668639054E-3</v>
+      </c>
+      <c r="N213" s="6">
+        <f>(B$220/B$212)*(C213/B$212)</f>
+        <v>3.5133136094674558E-3</v>
+      </c>
+      <c r="O213" s="6">
+        <f>(B$221/B$212)*(C213/B$212)</f>
+        <v>2.2189349112426036E-3</v>
+      </c>
+      <c r="P213" s="9">
+        <f>(B$222/B$212)*(C213/B$212)</f>
+        <v>2.0340236686390532E-3</v>
+      </c>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="9">
+        <f>SUM(G213:P213)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="B214" s="8">
+        <f>COUNTIF(B2:B209,"3.67")</f>
+        <v>18</v>
+      </c>
+      <c r="C214" s="10">
+        <f>COUNTIF(C2:C209,"3.67")</f>
+        <v>13</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="F214" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="G214" s="7">
+        <f>(B$213/B$212)*(C$214/B$212)</f>
+        <v>6.0096153846153849E-3</v>
+      </c>
+      <c r="H214" s="8">
+        <f>(B$214/B$212)*(C214/B$212)</f>
+        <v>5.408653846153846E-3</v>
+      </c>
+      <c r="I214" s="8">
+        <f>(B$215/B$212)*(C214/B$212)</f>
+        <v>7.512019230769231E-3</v>
+      </c>
+      <c r="J214" s="8">
+        <f>(B$216/B$212)*(C214/B$212)</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K214" s="8">
+        <f>(B$217/B$212)*(C214/B$212)</f>
+        <v>8.713942307692308E-3</v>
+      </c>
+      <c r="L214" s="8">
+        <f>(B$218/B$212)*(C214/B$212)</f>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="M214" s="8">
+        <f t="shared" ref="M214:M222" si="0">(B$219/B$212)*(C214/B$212)</f>
+        <v>5.408653846153846E-3</v>
+      </c>
+      <c r="N214" s="8">
+        <f t="shared" ref="N214:N222" si="1">(B$220/B$212)*(C214/B$212)</f>
+        <v>5.7091346153846151E-3</v>
+      </c>
+      <c r="O214" s="8">
+        <f t="shared" ref="O214:O222" si="2">(B$221/B$212)*(C214/B$212)</f>
+        <v>3.605769230769231E-3</v>
+      </c>
+      <c r="P214" s="10">
+        <f t="shared" ref="P214:P222" si="3">(B$222/B$212)*(C214/B$212)</f>
+        <v>3.3052884615384615E-3</v>
+      </c>
+      <c r="Q214" s="7"/>
+      <c r="R214" s="10">
+        <f>SUM(G214:P214)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="B215" s="8">
+        <f>COUNTIF(B2:B209,"3.33")</f>
+        <v>25</v>
+      </c>
+      <c r="C215" s="10">
+        <f>COUNTIF(C2:C209,"3.33")</f>
+        <v>15</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G215" s="7">
+        <f>(B$213/B$212)*(C$215/B$212)</f>
+        <v>6.9341715976331359E-3</v>
+      </c>
+      <c r="H215" s="8">
+        <f>(B$214/B$212)*(C215/B$212)</f>
+        <v>6.2407544378698214E-3</v>
+      </c>
+      <c r="I215" s="8">
+        <f>(B$215/B$212)*(C215/B$212)</f>
+        <v>8.6677144970414201E-3</v>
+      </c>
+      <c r="J215" s="8">
+        <f>(B$216/B$212)*(C215/B$212)</f>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="K215" s="8">
+        <f>(B$217/B$212)*(C215/B$212)</f>
+        <v>1.0054548816568048E-2</v>
+      </c>
+      <c r="L215" s="8">
+        <f>(B$218/B$212)*(C215/B$212)</f>
+        <v>1.0401257396449702E-2</v>
+      </c>
+      <c r="M215" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2407544378698214E-3</v>
+      </c>
+      <c r="N215" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5874630177514782E-3</v>
+      </c>
+      <c r="O215" s="8">
+        <f t="shared" si="2"/>
+        <v>4.1605029585798812E-3</v>
+      </c>
+      <c r="P215" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8137943786982244E-3</v>
+      </c>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="10">
+        <f>SUM(G215:P215)</f>
+        <v>7.2115384615384609E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>3</v>
+      </c>
+      <c r="B216" s="8">
+        <f>COUNTIF(B2:B209,"3")</f>
+        <v>26</v>
+      </c>
+      <c r="C216" s="10">
+        <f>COUNTIF(C2:C209,"3")</f>
+        <v>21</v>
+      </c>
+      <c r="E216" s="3"/>
+      <c r="F216" s="4">
+        <v>3</v>
+      </c>
+      <c r="G216" s="7">
+        <f>(B$213/B$212)*(C$216/B$212)</f>
+        <v>9.7078402366863915E-3</v>
+      </c>
+      <c r="H216" s="8">
+        <f>(B$214/B$212)*(C216/B$212)</f>
+        <v>8.737056213017751E-3</v>
+      </c>
+      <c r="I216" s="8">
+        <f>(B$215/B$212)*(C216/B$212)</f>
+        <v>1.2134800295857989E-2</v>
+      </c>
+      <c r="J216" s="8">
+        <f>(B$216/B$212)*(C216/B$212)</f>
+        <v>1.2620192307692308E-2</v>
+      </c>
+      <c r="K216" s="8">
+        <f>(B$217/B$212)*(C216/B$212)</f>
+        <v>1.4076368343195266E-2</v>
+      </c>
+      <c r="L216" s="8">
+        <f>(B$218/B$212)*(C216/B$212)</f>
+        <v>1.4561760355029586E-2</v>
+      </c>
+      <c r="M216" s="8">
+        <f t="shared" si="0"/>
+        <v>8.737056213017751E-3</v>
+      </c>
+      <c r="N216" s="8">
+        <f t="shared" si="1"/>
+        <v>9.2224482248520704E-3</v>
+      </c>
+      <c r="O216" s="8">
+        <f t="shared" si="2"/>
+        <v>5.8247041420118346E-3</v>
+      </c>
+      <c r="P216" s="10">
+        <f t="shared" si="3"/>
+        <v>5.3393121301775152E-3</v>
+      </c>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="10">
+        <f>SUM(G216:P216)</f>
+        <v>0.10096153846153846</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="B217" s="8">
+        <f>COUNTIF(B2:B209,"2.67")</f>
+        <v>29</v>
+      </c>
+      <c r="C217" s="10">
+        <f>COUNTIF(C2:C209,"2.67")</f>
+        <v>27</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="G217" s="7">
+        <f>(B$213/B$212)*(C$217/B$212)</f>
+        <v>1.2481508875739646E-2</v>
+      </c>
+      <c r="H217" s="8">
+        <f>(B$214/B$212)*(C217/B$212)</f>
+        <v>1.1233357988165681E-2</v>
+      </c>
+      <c r="I217" s="8">
+        <f>(B$215/B$212)*(C217/B$212)</f>
+        <v>1.5601886094674559E-2</v>
+      </c>
+      <c r="J217" s="8">
+        <f>(B$216/B$212)*(C217/B$212)</f>
+        <v>1.622596153846154E-2</v>
+      </c>
+      <c r="K217" s="8">
+        <f>(B$217/B$212)*(C217/B$212)</f>
+        <v>1.8098187869822487E-2</v>
+      </c>
+      <c r="L217" s="8">
+        <f>(B$218/B$212)*(C217/B$212)</f>
+        <v>1.8722263313609468E-2</v>
+      </c>
+      <c r="M217" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1233357988165681E-2</v>
+      </c>
+      <c r="N217" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1857433431952663E-2</v>
+      </c>
+      <c r="O217" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4889053254437879E-3</v>
+      </c>
+      <c r="P217" s="10">
+        <f t="shared" si="3"/>
+        <v>6.8648298816568051E-3</v>
+      </c>
+      <c r="Q217" s="7"/>
+      <c r="R217" s="10">
+        <f>SUM(G217:P217)</f>
+        <v>0.12980769230769232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="B218" s="8">
+        <f>COUNTIF(B2:B209,"2.33")</f>
+        <v>30</v>
+      </c>
+      <c r="C218" s="10">
+        <f>COUNTIF(C2:C209,"2.33")</f>
+        <v>34</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="G218" s="7">
+        <f>(B$213/B$212)*(C$218/B$212)</f>
+        <v>1.5717455621301776E-2</v>
+      </c>
+      <c r="H218" s="8">
+        <f>(B$214/B$212)*(C218/B$212)</f>
+        <v>1.4145710059171597E-2</v>
+      </c>
+      <c r="I218" s="8">
+        <f>(B$215/B$212)*(C218/B$212)</f>
+        <v>1.964681952662722E-2</v>
+      </c>
+      <c r="J218" s="8">
+        <f>(B$216/B$212)*(C218/B$212)</f>
+        <v>2.0432692307692308E-2</v>
+      </c>
+      <c r="K218" s="8">
+        <f>(B$217/B$212)*(C218/B$212)</f>
+        <v>2.2790310650887574E-2</v>
+      </c>
+      <c r="L218" s="8">
+        <f>(B$218/B$212)*(C218/B$212)</f>
+        <v>2.3576183431952662E-2</v>
+      </c>
+      <c r="M218" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4145710059171597E-2</v>
+      </c>
+      <c r="N218" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4931582840236686E-2</v>
+      </c>
+      <c r="O218" s="8">
+        <f t="shared" si="2"/>
+        <v>9.4304733727810664E-3</v>
+      </c>
+      <c r="P218" s="10">
+        <f t="shared" si="3"/>
+        <v>8.6446005917159771E-3</v>
+      </c>
+      <c r="Q218" s="7"/>
+      <c r="R218" s="10">
+        <f>SUM(G218:P218)</f>
+        <v>0.16346153846153846</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>2</v>
+      </c>
+      <c r="B219" s="8">
+        <f>COUNTIF(B2:B209,"2")</f>
+        <v>18</v>
+      </c>
+      <c r="C219" s="10">
+        <f>COUNTIF(C2:C209,"2")</f>
+        <v>33</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="4">
+        <v>2</v>
+      </c>
+      <c r="G219" s="7">
+        <f>(B$213/B$212)*(C$219/B$212)</f>
+        <v>1.5255177514792899E-2</v>
+      </c>
+      <c r="H219" s="8">
+        <f>(B$214/B$212)*(C219/B$212)</f>
+        <v>1.3729659763313608E-2</v>
+      </c>
+      <c r="I219" s="8">
+        <f>(B$215/B$212)*(C219/B$212)</f>
+        <v>1.9068971893491125E-2</v>
+      </c>
+      <c r="J219" s="8">
+        <f>(B$216/B$212)*(C219/B$212)</f>
+        <v>1.9831730769230768E-2</v>
+      </c>
+      <c r="K219" s="8">
+        <f>(B$217/B$212)*(C219/B$212)</f>
+        <v>2.2120007396449703E-2</v>
+      </c>
+      <c r="L219" s="8">
+        <f>(B$218/B$212)*(C219/B$212)</f>
+        <v>2.2882766272189346E-2</v>
+      </c>
+      <c r="M219" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3729659763313608E-2</v>
+      </c>
+      <c r="N219" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4492418639053253E-2</v>
+      </c>
+      <c r="O219" s="8">
+        <f t="shared" si="2"/>
+        <v>9.1531065088757396E-3</v>
+      </c>
+      <c r="P219" s="10">
+        <f t="shared" si="3"/>
+        <v>8.3903476331360933E-3</v>
+      </c>
+      <c r="Q219" s="7"/>
+      <c r="R219" s="10">
+        <f>SUM(G219:P219)</f>
+        <v>0.15865384615384617</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="B220" s="8">
+        <f>COUNTIF(B2:B209,"1.67")</f>
+        <v>19</v>
+      </c>
+      <c r="C220" s="10">
+        <f>COUNTIF(C2:C209,"1.67")</f>
+        <v>31</v>
+      </c>
+      <c r="E220" s="3"/>
+      <c r="F220" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G220" s="7">
+        <f>(B$213/B$212)*(C$220/B$212)</f>
+        <v>1.4330621301775148E-2</v>
+      </c>
+      <c r="H220" s="8">
+        <f>(B$214/B$212)*(C220/B$212)</f>
+        <v>1.2897559171597633E-2</v>
+      </c>
+      <c r="I220" s="8">
+        <f>(B$215/B$212)*(C220/B$212)</f>
+        <v>1.7913276627218935E-2</v>
+      </c>
+      <c r="J220" s="8">
+        <f>(B$216/B$212)*(C220/B$212)</f>
+        <v>1.8629807692307692E-2</v>
+      </c>
+      <c r="K220" s="8">
+        <f>(B$217/B$212)*(C220/B$212)</f>
+        <v>2.0779400887573966E-2</v>
+      </c>
+      <c r="L220" s="8">
+        <f>(B$218/B$212)*(C220/B$212)</f>
+        <v>2.1495931952662719E-2</v>
+      </c>
+      <c r="M220" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2897559171597633E-2</v>
+      </c>
+      <c r="N220" s="8">
+        <f t="shared" si="1"/>
+        <v>1.361409023668639E-2</v>
+      </c>
+      <c r="O220" s="8">
+        <f t="shared" si="2"/>
+        <v>8.5983727810650893E-3</v>
+      </c>
+      <c r="P220" s="10">
+        <f t="shared" si="3"/>
+        <v>7.8818417159763308E-3</v>
+      </c>
+      <c r="Q220" s="7"/>
+      <c r="R220" s="10">
+        <f>SUM(G220:P220)</f>
+        <v>0.14903846153846154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="B221" s="8">
+        <f>COUNTIF(B2:B209,"1.33")</f>
+        <v>12</v>
+      </c>
+      <c r="C221" s="10">
+        <f>COUNTIF(C2:C209,"1.33")</f>
+        <v>19</v>
+      </c>
+      <c r="E221" s="3"/>
+      <c r="F221" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="G221" s="7">
+        <f>(B$213/B$212)*(C$221/B$212)</f>
+        <v>8.7832840236686388E-3</v>
+      </c>
+      <c r="H221" s="8">
+        <f>(B$214/B$212)*(C221/B$212)</f>
+        <v>7.9049556213017739E-3</v>
+      </c>
+      <c r="I221" s="8">
+        <f>(B$215/B$212)*(C221/B$212)</f>
+        <v>1.0979105029585799E-2</v>
+      </c>
+      <c r="J221" s="8">
+        <f>(B$216/B$212)*(C221/B$212)</f>
+        <v>1.141826923076923E-2</v>
+      </c>
+      <c r="K221" s="8">
+        <f>(B$217/B$212)*(C221/B$212)</f>
+        <v>1.2735761834319527E-2</v>
+      </c>
+      <c r="L221" s="8">
+        <f>(B$218/B$212)*(C221/B$212)</f>
+        <v>1.3174926035502956E-2</v>
+      </c>
+      <c r="M221" s="8">
+        <f t="shared" si="0"/>
+        <v>7.9049556213017739E-3</v>
+      </c>
+      <c r="N221" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3441198224852055E-3</v>
+      </c>
+      <c r="O221" s="8">
+        <f t="shared" si="2"/>
+        <v>5.2699704142011835E-3</v>
+      </c>
+      <c r="P221" s="10">
+        <f t="shared" si="3"/>
+        <v>4.830806213017751E-3</v>
+      </c>
+      <c r="Q221" s="7"/>
+      <c r="R221" s="10">
+        <f>SUM(G221:P221)</f>
+        <v>9.1346153846153841E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1">
+        <f>COUNTIF(B2:B209,"1")</f>
+        <v>11</v>
+      </c>
+      <c r="C222" s="12">
+        <f>COUNTIF(C2:C209,"1")</f>
+        <v>7</v>
+      </c>
+      <c r="E222" s="3"/>
+      <c r="F222" s="4">
+        <v>1</v>
+      </c>
+      <c r="G222" s="11">
+        <f>(B$213/B$212)*(C$222/B$212)</f>
+        <v>3.2359467455621302E-3</v>
+      </c>
+      <c r="H222" s="1">
+        <f>(B$214/B$212)*(C222/B$212)</f>
+        <v>2.9123520710059169E-3</v>
+      </c>
+      <c r="I222" s="1">
+        <f>(B$215/B$212)*(C222/B$212)</f>
+        <v>4.0449334319526626E-3</v>
+      </c>
+      <c r="J222" s="1">
+        <f>(B$216/B$212)*(C222/B$212)</f>
+        <v>4.206730769230769E-3</v>
+      </c>
+      <c r="K222" s="1">
+        <f>(B$217/B$212)*(C222/B$212)</f>
+        <v>4.6921227810650884E-3</v>
+      </c>
+      <c r="L222" s="1">
+        <f>(B$218/B$212)*(C222/B$212)</f>
+        <v>4.8539201183431949E-3</v>
+      </c>
+      <c r="M222" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9123520710059169E-3</v>
+      </c>
+      <c r="N222" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0741494082840233E-3</v>
+      </c>
+      <c r="O222" s="1">
+        <f t="shared" si="2"/>
+        <v>1.941568047337278E-3</v>
+      </c>
+      <c r="P222" s="12">
+        <f t="shared" si="3"/>
+        <v>1.7797707100591716E-3</v>
+      </c>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="12">
+        <f>SUM(G222:P222)</f>
+        <v>3.3653846153846152E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G223" s="5"/>
+      <c r="P223" s="9"/>
+      <c r="Q223" s="16">
+        <f>SUM(R213:R222)</f>
+        <v>1</v>
+      </c>
+      <c r="R223" s="17"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G224" s="11">
+        <f>SUM(G213:G222)</f>
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="H224" s="1">
+        <f>SUM(H213:H222)</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="I224" s="1">
+        <f>SUM(I213:I222)</f>
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="J224" s="1">
+        <f>SUM(J213:J222)</f>
+        <v>0.125</v>
+      </c>
+      <c r="K224" s="1">
+        <f>SUM(K213:K222)</f>
+        <v>0.13942307692307693</v>
+      </c>
+      <c r="L224" s="1">
+        <f>SUM(L213:L222)</f>
+        <v>0.14423076923076925</v>
+      </c>
+      <c r="M224" s="1">
+        <f>SUM(M213:M222)</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="N224" s="1">
+        <f>SUM(N213:N222)</f>
+        <v>9.1346153846153841E-2</v>
+      </c>
+      <c r="O224" s="1">
+        <f>SUM(O213:O222)</f>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="P224" s="12">
+        <f>SUM(P213:P222)</f>
+        <v>5.2884615384615384E-2</v>
+      </c>
+      <c r="Q224" s="18"/>
+      <c r="R224" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E211:F212"/>
+    <mergeCell ref="G211:P211"/>
+    <mergeCell ref="E213:E222"/>
+    <mergeCell ref="Q223:R224"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ITC,CP,DS,DB.xlsx
+++ b/ITC,CP,DS,DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="454" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="454" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="75-25" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>DS</t>
+  </si>
+  <si>
+    <t>PROB</t>
   </si>
 </sst>
 </file>
@@ -1109,12 +1112,6 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1124,6 +1121,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1145,8 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11666,10 +11669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="J231" sqref="J231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13985,740 +13988,879 @@
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E211" s="2"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="3" t="s">
+      <c r="E211" s="14"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B212" s="20">
-        <f>SUM(B213:B231)</f>
+      <c r="B212" s="11">
+        <f>SUM(B213:B222)</f>
         <v>208</v>
       </c>
-      <c r="C212" s="21">
+      <c r="C212" s="12">
         <f>SUM(C213:C222)</f>
         <v>208</v>
       </c>
-      <c r="E212" s="14"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="4">
-        <v>4</v>
-      </c>
-      <c r="H212" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="I212" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="J212" s="4">
-        <v>3</v>
-      </c>
-      <c r="K212" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="L212" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="M212" s="4">
-        <v>2</v>
-      </c>
-      <c r="N212" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="O212" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="P212" s="4">
+      <c r="E212" s="16"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="2">
+        <v>4</v>
+      </c>
+      <c r="H212" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="I212" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="J212" s="2">
+        <v>3</v>
+      </c>
+      <c r="K212" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="L212" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="M212" s="2">
+        <v>2</v>
+      </c>
+      <c r="N212" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="O212" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="P212" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
-        <v>4</v>
-      </c>
-      <c r="B213" s="8">
+      <c r="A213" s="2">
+        <v>4</v>
+      </c>
+      <c r="B213" s="6">
         <f>COUNTIF(B2:B209,"4")</f>
         <v>34</v>
       </c>
-      <c r="C213" s="10">
+      <c r="C213" s="8">
         <f>COUNTIF(C2:C209,"4")</f>
         <v>8</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F213" s="4">
-        <v>4</v>
-      </c>
-      <c r="G213" s="5">
+      <c r="F213" s="2">
+        <v>4</v>
+      </c>
+      <c r="G213" s="3">
         <f>(B213/B212)*(C213/B212)</f>
         <v>6.2869822485207101E-3</v>
       </c>
-      <c r="H213" s="6">
-        <f>(B$214/B$212)*(C213/B$212)</f>
+      <c r="H213" s="4">
+        <f t="shared" ref="H213:H222" si="0">(B$214/B$212)*(C213/B$212)</f>
         <v>4.0680473372781065E-3</v>
       </c>
-      <c r="I213" s="6">
-        <f>(B$215/B$212)*(C213/B$212)</f>
+      <c r="I213" s="4">
+        <f t="shared" ref="I213:I222" si="1">(B$215/B$212)*(C213/B$212)</f>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="J213" s="6">
-        <f>(B$216/B$212)*(C213/B$212)</f>
+      <c r="J213" s="4">
+        <f t="shared" ref="J213:J222" si="2">(B$216/B$212)*(C213/B$212)</f>
         <v>4.0680473372781065E-3</v>
       </c>
-      <c r="K213" s="6">
-        <f>(B$217/B$212)*(C213/B$212)</f>
+      <c r="K213" s="4">
+        <f t="shared" ref="K213:K222" si="3">(B$217/B$212)*(C213/B$212)</f>
         <v>5.5473372781065086E-3</v>
       </c>
-      <c r="L213" s="6">
-        <f>(B$218/B$212)*(C213/B$212)</f>
+      <c r="L213" s="4">
+        <f t="shared" ref="L213:L222" si="4">(B$218/B$212)*(C213/B$212)</f>
         <v>5.1775147928994087E-3</v>
       </c>
-      <c r="M213" s="6">
+      <c r="M213" s="4">
         <f>(B$219/B$212)*(C213/B$212)</f>
         <v>3.3284023668639054E-3</v>
       </c>
-      <c r="N213" s="6">
+      <c r="N213" s="4">
         <f>(B$220/B$212)*(C213/B$212)</f>
         <v>2.0340236686390532E-3</v>
       </c>
-      <c r="O213" s="6">
+      <c r="O213" s="4">
         <f>(B$221/B$212)*(C213/B$212)</f>
         <v>1.8491124260355031E-3</v>
       </c>
-      <c r="P213" s="9">
+      <c r="P213" s="7">
         <f>(B$222/B$212)*(C213/B$212)</f>
         <v>1.2943786982248522E-3</v>
       </c>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="9">
-        <f>SUM(G213:P213)</f>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="7">
+        <f t="shared" ref="R213:R222" si="5">SUM(G213:P213)</f>
         <v>3.8461538461538471E-2</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="B214" s="8">
+      <c r="A214" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="B214" s="6">
         <f>COUNTIF(B2:B209,"3.67")</f>
         <v>22</v>
       </c>
-      <c r="C214" s="10">
+      <c r="C214" s="8">
         <f>COUNTIF(C2:C209,"3.67")</f>
         <v>13</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="G214" s="7">
+      <c r="E214" s="13"/>
+      <c r="F214" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="G214" s="5">
         <f>(B$213/B$212)*(C$214/B$212)</f>
         <v>1.0216346153846154E-2</v>
       </c>
-      <c r="H214" s="8">
-        <f>(B$214/B$212)*(C214/B$212)</f>
+      <c r="H214" s="6">
+        <f t="shared" si="0"/>
         <v>6.610576923076923E-3</v>
       </c>
-      <c r="I214" s="8">
-        <f>(B$215/B$212)*(C214/B$212)</f>
+      <c r="I214" s="6">
+        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="J214" s="8">
-        <f>(B$216/B$212)*(C214/B$212)</f>
+      <c r="J214" s="6">
+        <f t="shared" si="2"/>
         <v>6.610576923076923E-3</v>
       </c>
-      <c r="K214" s="8">
-        <f>(B$217/B$212)*(C214/B$212)</f>
+      <c r="K214" s="6">
+        <f t="shared" si="3"/>
         <v>9.0144230769230761E-3</v>
       </c>
-      <c r="L214" s="8">
-        <f>(B$218/B$212)*(C214/B$212)</f>
+      <c r="L214" s="6">
+        <f t="shared" si="4"/>
         <v>8.4134615384615381E-3</v>
       </c>
-      <c r="M214" s="8">
-        <f t="shared" ref="M214:M222" si="0">(B$219/B$212)*(C214/B$212)</f>
+      <c r="M214" s="6">
+        <f t="shared" ref="M214:M222" si="6">(B$219/B$212)*(C214/B$212)</f>
         <v>5.408653846153846E-3</v>
       </c>
-      <c r="N214" s="8">
-        <f t="shared" ref="N214:N222" si="1">(B$220/B$212)*(C214/B$212)</f>
+      <c r="N214" s="6">
+        <f t="shared" ref="N214:N222" si="7">(B$220/B$212)*(C214/B$212)</f>
         <v>3.3052884615384615E-3</v>
       </c>
-      <c r="O214" s="8">
-        <f t="shared" ref="O214:O222" si="2">(B$221/B$212)*(C214/B$212)</f>
+      <c r="O214" s="6">
+        <f t="shared" ref="O214:O222" si="8">(B$221/B$212)*(C214/B$212)</f>
         <v>3.0048076923076925E-3</v>
       </c>
-      <c r="P214" s="10">
-        <f t="shared" ref="P214:P222" si="3">(B$222/B$212)*(C214/B$212)</f>
+      <c r="P214" s="8">
+        <f t="shared" ref="P214:P222" si="9">(B$222/B$212)*(C214/B$212)</f>
         <v>2.1033653846153845E-3</v>
       </c>
-      <c r="Q214" s="7"/>
-      <c r="R214" s="10">
-        <f>SUM(G214:P214)</f>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="8">
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="B215" s="8">
+      <c r="A215" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="B215" s="6">
         <f>COUNTIF(B2:B209,"3.33")</f>
         <v>26</v>
       </c>
-      <c r="C215" s="10">
+      <c r="C215" s="8">
         <f>COUNTIF(C2:C209,"3.33")</f>
         <v>15</v>
       </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="G215" s="7">
+      <c r="E215" s="13"/>
+      <c r="F215" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="G215" s="5">
         <f>(B$213/B$212)*(C$215/B$212)</f>
         <v>1.1788091715976331E-2</v>
       </c>
-      <c r="H215" s="8">
-        <f>(B$214/B$212)*(C215/B$212)</f>
+      <c r="H215" s="6">
+        <f t="shared" si="0"/>
         <v>7.6275887573964488E-3</v>
       </c>
-      <c r="I215" s="8">
-        <f>(B$215/B$212)*(C215/B$212)</f>
+      <c r="I215" s="6">
+        <f t="shared" si="1"/>
         <v>9.0144230769230761E-3</v>
       </c>
-      <c r="J215" s="8">
-        <f>(B$216/B$212)*(C215/B$212)</f>
+      <c r="J215" s="6">
+        <f t="shared" si="2"/>
         <v>7.6275887573964488E-3</v>
       </c>
-      <c r="K215" s="8">
-        <f>(B$217/B$212)*(C215/B$212)</f>
+      <c r="K215" s="6">
+        <f t="shared" si="3"/>
         <v>1.0401257396449702E-2</v>
       </c>
-      <c r="L215" s="8">
-        <f>(B$218/B$212)*(C215/B$212)</f>
+      <c r="L215" s="6">
+        <f t="shared" si="4"/>
         <v>9.7078402366863898E-3</v>
       </c>
-      <c r="M215" s="8">
-        <f t="shared" si="0"/>
+      <c r="M215" s="6">
+        <f t="shared" si="6"/>
         <v>6.2407544378698214E-3</v>
       </c>
-      <c r="N215" s="8">
-        <f t="shared" si="1"/>
+      <c r="N215" s="6">
+        <f t="shared" si="7"/>
         <v>3.8137943786982244E-3</v>
       </c>
-      <c r="O215" s="8">
-        <f t="shared" si="2"/>
+      <c r="O215" s="6">
+        <f t="shared" si="8"/>
         <v>3.467085798816568E-3</v>
       </c>
-      <c r="P215" s="10">
-        <f t="shared" si="3"/>
+      <c r="P215" s="8">
+        <f t="shared" si="9"/>
         <v>2.4269600591715975E-3</v>
       </c>
-      <c r="Q215" s="7"/>
-      <c r="R215" s="10">
-        <f>SUM(G215:P215)</f>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="8">
+        <f t="shared" si="5"/>
         <v>7.2115384615384609E-2</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
-        <v>3</v>
-      </c>
-      <c r="B216" s="8">
+      <c r="A216" s="2">
+        <v>3</v>
+      </c>
+      <c r="B216" s="6">
         <f>COUNTIF(B2:B209,"3")</f>
         <v>22</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="8">
         <f>COUNTIF(C2:C209,"3")</f>
         <v>21</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4">
-        <v>3</v>
-      </c>
-      <c r="G216" s="7">
+      <c r="E216" s="13"/>
+      <c r="F216" s="2">
+        <v>3</v>
+      </c>
+      <c r="G216" s="5">
         <f>(B$213/B$212)*(C$216/B$212)</f>
         <v>1.6503328402366863E-2</v>
       </c>
-      <c r="H216" s="8">
-        <f>(B$214/B$212)*(C216/B$212)</f>
+      <c r="H216" s="6">
+        <f t="shared" si="0"/>
         <v>1.067862426035503E-2</v>
       </c>
-      <c r="I216" s="8">
-        <f>(B$215/B$212)*(C216/B$212)</f>
+      <c r="I216" s="6">
+        <f t="shared" si="1"/>
         <v>1.2620192307692308E-2</v>
       </c>
-      <c r="J216" s="8">
-        <f>(B$216/B$212)*(C216/B$212)</f>
+      <c r="J216" s="6">
+        <f t="shared" si="2"/>
         <v>1.067862426035503E-2</v>
       </c>
-      <c r="K216" s="8">
-        <f>(B$217/B$212)*(C216/B$212)</f>
+      <c r="K216" s="6">
+        <f t="shared" si="3"/>
         <v>1.4561760355029586E-2</v>
       </c>
-      <c r="L216" s="8">
-        <f>(B$218/B$212)*(C216/B$212)</f>
+      <c r="L216" s="6">
+        <f t="shared" si="4"/>
         <v>1.3590976331360947E-2</v>
       </c>
-      <c r="M216" s="8">
-        <f t="shared" si="0"/>
+      <c r="M216" s="6">
+        <f t="shared" si="6"/>
         <v>8.737056213017751E-3</v>
       </c>
-      <c r="N216" s="8">
-        <f t="shared" si="1"/>
+      <c r="N216" s="6">
+        <f t="shared" si="7"/>
         <v>5.3393121301775152E-3</v>
       </c>
-      <c r="O216" s="8">
-        <f t="shared" si="2"/>
+      <c r="O216" s="6">
+        <f t="shared" si="8"/>
         <v>4.8539201183431958E-3</v>
       </c>
-      <c r="P216" s="10">
-        <f t="shared" si="3"/>
+      <c r="P216" s="8">
+        <f t="shared" si="9"/>
         <v>3.3977440828402367E-3</v>
       </c>
-      <c r="Q216" s="7"/>
-      <c r="R216" s="10">
-        <f>SUM(G216:P216)</f>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="8">
+        <f t="shared" si="5"/>
         <v>0.10096153846153846</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="B217" s="8">
+      <c r="A217" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="B217" s="6">
         <f>COUNTIF(B2:B209,"2.67")</f>
         <v>30</v>
       </c>
-      <c r="C217" s="10">
+      <c r="C217" s="8">
         <f>COUNTIF(C2:C209,"2.67")</f>
         <v>27</v>
       </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="G217" s="7">
+      <c r="E217" s="13"/>
+      <c r="F217" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="G217" s="5">
         <f>(B$213/B$212)*(C$217/B$212)</f>
         <v>2.1218565088757399E-2</v>
       </c>
-      <c r="H217" s="8">
-        <f>(B$214/B$212)*(C217/B$212)</f>
+      <c r="H217" s="6">
+        <f t="shared" si="0"/>
         <v>1.372965976331361E-2</v>
       </c>
-      <c r="I217" s="8">
-        <f>(B$215/B$212)*(C217/B$212)</f>
+      <c r="I217" s="6">
+        <f t="shared" si="1"/>
         <v>1.622596153846154E-2</v>
       </c>
-      <c r="J217" s="8">
-        <f>(B$216/B$212)*(C217/B$212)</f>
+      <c r="J217" s="6">
+        <f t="shared" si="2"/>
         <v>1.372965976331361E-2</v>
       </c>
-      <c r="K217" s="8">
-        <f>(B$217/B$212)*(C217/B$212)</f>
+      <c r="K217" s="6">
+        <f t="shared" si="3"/>
         <v>1.8722263313609468E-2</v>
       </c>
-      <c r="L217" s="8">
-        <f>(B$218/B$212)*(C217/B$212)</f>
+      <c r="L217" s="6">
+        <f t="shared" si="4"/>
         <v>1.7474112426035502E-2</v>
       </c>
-      <c r="M217" s="8">
-        <f t="shared" si="0"/>
+      <c r="M217" s="6">
+        <f t="shared" si="6"/>
         <v>1.1233357988165681E-2</v>
       </c>
-      <c r="N217" s="8">
-        <f t="shared" si="1"/>
+      <c r="N217" s="6">
+        <f t="shared" si="7"/>
         <v>6.8648298816568051E-3</v>
       </c>
-      <c r="O217" s="8">
-        <f t="shared" si="2"/>
+      <c r="O217" s="6">
+        <f t="shared" si="8"/>
         <v>6.2407544378698231E-3</v>
       </c>
-      <c r="P217" s="10">
-        <f t="shared" si="3"/>
+      <c r="P217" s="8">
+        <f t="shared" si="9"/>
         <v>4.3685281065088755E-3</v>
       </c>
-      <c r="Q217" s="7"/>
-      <c r="R217" s="10">
-        <f>SUM(G217:P217)</f>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="8">
+        <f t="shared" si="5"/>
         <v>0.12980769230769232</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="B218" s="8">
+      <c r="A218" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="B218" s="6">
         <f>COUNTIF(B2:B209,"2.33")</f>
         <v>28</v>
       </c>
-      <c r="C218" s="10">
+      <c r="C218" s="8">
         <f>COUNTIF(C2:C209,"2.33")</f>
         <v>34</v>
       </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="G218" s="7">
+      <c r="E218" s="13"/>
+      <c r="F218" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="G218" s="5">
         <f>(B$213/B$212)*(C$218/B$212)</f>
         <v>2.6719674556213019E-2</v>
       </c>
-      <c r="H218" s="8">
-        <f>(B$214/B$212)*(C218/B$212)</f>
+      <c r="H218" s="6">
+        <f t="shared" si="0"/>
         <v>1.7289201183431954E-2</v>
       </c>
-      <c r="I218" s="8">
-        <f>(B$215/B$212)*(C218/B$212)</f>
+      <c r="I218" s="6">
+        <f t="shared" si="1"/>
         <v>2.0432692307692308E-2</v>
       </c>
-      <c r="J218" s="8">
-        <f>(B$216/B$212)*(C218/B$212)</f>
+      <c r="J218" s="6">
+        <f t="shared" si="2"/>
         <v>1.7289201183431954E-2</v>
       </c>
-      <c r="K218" s="8">
-        <f>(B$217/B$212)*(C218/B$212)</f>
+      <c r="K218" s="6">
+        <f t="shared" si="3"/>
         <v>2.3576183431952662E-2</v>
       </c>
-      <c r="L218" s="8">
-        <f>(B$218/B$212)*(C218/B$212)</f>
+      <c r="L218" s="6">
+        <f t="shared" si="4"/>
         <v>2.2004437869822483E-2</v>
       </c>
-      <c r="M218" s="8">
-        <f t="shared" si="0"/>
+      <c r="M218" s="6">
+        <f t="shared" si="6"/>
         <v>1.4145710059171597E-2</v>
       </c>
-      <c r="N218" s="8">
-        <f t="shared" si="1"/>
+      <c r="N218" s="6">
+        <f t="shared" si="7"/>
         <v>8.6446005917159771E-3</v>
       </c>
-      <c r="O218" s="8">
-        <f t="shared" si="2"/>
+      <c r="O218" s="6">
+        <f t="shared" si="8"/>
         <v>7.8587278106508878E-3</v>
       </c>
-      <c r="P218" s="10">
-        <f t="shared" si="3"/>
+      <c r="P218" s="8">
+        <f t="shared" si="9"/>
         <v>5.5011094674556208E-3</v>
       </c>
-      <c r="Q218" s="7"/>
-      <c r="R218" s="10">
-        <f>SUM(G218:P218)</f>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="8">
+        <f t="shared" si="5"/>
         <v>0.16346153846153846</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
-        <v>2</v>
-      </c>
-      <c r="B219" s="8">
+      <c r="A219" s="2">
+        <v>2</v>
+      </c>
+      <c r="B219" s="6">
         <f>COUNTIF(B2:B209,"2")</f>
         <v>18</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="8">
         <f>COUNTIF(C2:C209,"2")</f>
         <v>33</v>
       </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4">
-        <v>2</v>
-      </c>
-      <c r="G219" s="7">
+      <c r="E219" s="13"/>
+      <c r="F219" s="2">
+        <v>2</v>
+      </c>
+      <c r="G219" s="5">
         <f>(B$213/B$212)*(C$219/B$212)</f>
         <v>2.5933801775147928E-2</v>
       </c>
-      <c r="H219" s="8">
-        <f>(B$214/B$212)*(C219/B$212)</f>
+      <c r="H219" s="6">
+        <f t="shared" si="0"/>
         <v>1.6780695266272187E-2</v>
       </c>
-      <c r="I219" s="8">
-        <f>(B$215/B$212)*(C219/B$212)</f>
+      <c r="I219" s="6">
+        <f t="shared" si="1"/>
         <v>1.9831730769230768E-2</v>
       </c>
-      <c r="J219" s="8">
-        <f>(B$216/B$212)*(C219/B$212)</f>
+      <c r="J219" s="6">
+        <f t="shared" si="2"/>
         <v>1.6780695266272187E-2</v>
       </c>
-      <c r="K219" s="8">
-        <f>(B$217/B$212)*(C219/B$212)</f>
+      <c r="K219" s="6">
+        <f t="shared" si="3"/>
         <v>2.2882766272189346E-2</v>
       </c>
-      <c r="L219" s="8">
-        <f>(B$218/B$212)*(C219/B$212)</f>
+      <c r="L219" s="6">
+        <f t="shared" si="4"/>
         <v>2.1357248520710057E-2</v>
       </c>
-      <c r="M219" s="8">
-        <f t="shared" si="0"/>
+      <c r="M219" s="6">
+        <f t="shared" si="6"/>
         <v>1.3729659763313608E-2</v>
       </c>
-      <c r="N219" s="8">
-        <f t="shared" si="1"/>
+      <c r="N219" s="6">
+        <f t="shared" si="7"/>
         <v>8.3903476331360933E-3</v>
       </c>
-      <c r="O219" s="8">
-        <f t="shared" si="2"/>
+      <c r="O219" s="6">
+        <f t="shared" si="8"/>
         <v>7.6275887573964496E-3</v>
       </c>
-      <c r="P219" s="10">
-        <f t="shared" si="3"/>
+      <c r="P219" s="8">
+        <f t="shared" si="9"/>
         <v>5.3393121301775143E-3</v>
       </c>
-      <c r="Q219" s="7"/>
-      <c r="R219" s="10">
-        <f>SUM(G219:P219)</f>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="8">
+        <f t="shared" si="5"/>
         <v>0.15865384615384615</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="B220" s="8">
+      <c r="A220" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="B220" s="6">
         <f>COUNTIF(B2:B209,"1.67")</f>
         <v>11</v>
       </c>
-      <c r="C220" s="10">
+      <c r="C220" s="8">
         <f>COUNTIF(C2:C209,"1.67")</f>
         <v>31</v>
       </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="G220" s="7">
+      <c r="E220" s="13"/>
+      <c r="F220" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="G220" s="5">
         <f>(B$213/B$212)*(C$220/B$212)</f>
         <v>2.4362056213017753E-2</v>
       </c>
-      <c r="H220" s="8">
-        <f>(B$214/B$212)*(C220/B$212)</f>
+      <c r="H220" s="6">
+        <f t="shared" si="0"/>
         <v>1.5763683431952662E-2</v>
       </c>
-      <c r="I220" s="8">
-        <f>(B$215/B$212)*(C220/B$212)</f>
+      <c r="I220" s="6">
+        <f t="shared" si="1"/>
         <v>1.8629807692307692E-2</v>
       </c>
-      <c r="J220" s="8">
-        <f>(B$216/B$212)*(C220/B$212)</f>
+      <c r="J220" s="6">
+        <f t="shared" si="2"/>
         <v>1.5763683431952662E-2</v>
       </c>
-      <c r="K220" s="8">
-        <f>(B$217/B$212)*(C220/B$212)</f>
+      <c r="K220" s="6">
+        <f t="shared" si="3"/>
         <v>2.1495931952662719E-2</v>
       </c>
-      <c r="L220" s="8">
-        <f>(B$218/B$212)*(C220/B$212)</f>
+      <c r="L220" s="6">
+        <f t="shared" si="4"/>
         <v>2.0062869822485205E-2</v>
       </c>
-      <c r="M220" s="8">
-        <f t="shared" si="0"/>
+      <c r="M220" s="6">
+        <f t="shared" si="6"/>
         <v>1.2897559171597633E-2</v>
       </c>
-      <c r="N220" s="8">
-        <f t="shared" si="1"/>
+      <c r="N220" s="6">
+        <f t="shared" si="7"/>
         <v>7.8818417159763308E-3</v>
       </c>
-      <c r="O220" s="8">
-        <f t="shared" si="2"/>
+      <c r="O220" s="6">
+        <f t="shared" si="8"/>
         <v>7.1653106508875741E-3</v>
       </c>
-      <c r="P220" s="10">
-        <f t="shared" si="3"/>
+      <c r="P220" s="8">
+        <f t="shared" si="9"/>
         <v>5.0157174556213014E-3</v>
       </c>
-      <c r="Q220" s="7"/>
-      <c r="R220" s="10">
-        <f>SUM(G220:P220)</f>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="8">
+        <f t="shared" si="5"/>
         <v>0.14903846153846154</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="B221" s="8">
+      <c r="A221" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="B221" s="6">
         <f>COUNTIF(B2:B209,"1.33")</f>
         <v>10</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C221" s="8">
         <f>COUNTIF(C2:C209,"1.33")</f>
         <v>19</v>
       </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="G221" s="7">
+      <c r="E221" s="13"/>
+      <c r="F221" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="G221" s="5">
         <f>(B$213/B$212)*(C$221/B$212)</f>
         <v>1.4931582840236686E-2</v>
       </c>
-      <c r="H221" s="8">
-        <f>(B$214/B$212)*(C221/B$212)</f>
+      <c r="H221" s="6">
+        <f t="shared" si="0"/>
         <v>9.661612426035502E-3</v>
       </c>
-      <c r="I221" s="8">
-        <f>(B$215/B$212)*(C221/B$212)</f>
+      <c r="I221" s="6">
+        <f t="shared" si="1"/>
         <v>1.141826923076923E-2</v>
       </c>
-      <c r="J221" s="8">
-        <f>(B$216/B$212)*(C221/B$212)</f>
+      <c r="J221" s="6">
+        <f t="shared" si="2"/>
         <v>9.661612426035502E-3</v>
       </c>
-      <c r="K221" s="8">
-        <f>(B$217/B$212)*(C221/B$212)</f>
+      <c r="K221" s="6">
+        <f t="shared" si="3"/>
         <v>1.3174926035502956E-2</v>
       </c>
-      <c r="L221" s="8">
-        <f>(B$218/B$212)*(C221/B$212)</f>
+      <c r="L221" s="6">
+        <f t="shared" si="4"/>
         <v>1.2296597633136093E-2</v>
       </c>
-      <c r="M221" s="8">
-        <f t="shared" si="0"/>
+      <c r="M221" s="6">
+        <f t="shared" si="6"/>
         <v>7.9049556213017739E-3</v>
       </c>
-      <c r="N221" s="8">
-        <f t="shared" si="1"/>
+      <c r="N221" s="6">
+        <f t="shared" si="7"/>
         <v>4.830806213017751E-3</v>
       </c>
-      <c r="O221" s="8">
-        <f t="shared" si="2"/>
+      <c r="O221" s="6">
+        <f t="shared" si="8"/>
         <v>4.3916420118343194E-3</v>
       </c>
-      <c r="P221" s="10">
-        <f t="shared" si="3"/>
+      <c r="P221" s="8">
+        <f t="shared" si="9"/>
         <v>3.0741494082840233E-3</v>
       </c>
-      <c r="Q221" s="7"/>
-      <c r="R221" s="10">
-        <f>SUM(G221:P221)</f>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="8">
+        <f t="shared" si="5"/>
         <v>9.1346153846153869E-2</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="2">
         <v>1</v>
       </c>
       <c r="B222" s="1">
         <f>COUNTIF(B2:B209,"1")</f>
         <v>7</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="10">
         <f>COUNTIF(C2:C209,"1")</f>
         <v>7</v>
       </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="4">
+      <c r="E222" s="13"/>
+      <c r="F222" s="2">
         <v>1</v>
       </c>
-      <c r="G222" s="11">
+      <c r="G222" s="9">
         <f>(B$213/B$212)*(C$222/B$212)</f>
         <v>5.5011094674556208E-3</v>
       </c>
       <c r="H222" s="1">
-        <f>(B$214/B$212)*(C222/B$212)</f>
+        <f t="shared" si="0"/>
         <v>3.5595414201183432E-3</v>
       </c>
       <c r="I222" s="1">
-        <f>(B$215/B$212)*(C222/B$212)</f>
+        <f t="shared" si="1"/>
         <v>4.206730769230769E-3</v>
       </c>
       <c r="J222" s="1">
-        <f>(B$216/B$212)*(C222/B$212)</f>
+        <f t="shared" si="2"/>
         <v>3.5595414201183432E-3</v>
       </c>
       <c r="K222" s="1">
-        <f>(B$217/B$212)*(C222/B$212)</f>
+        <f t="shared" si="3"/>
         <v>4.8539201183431949E-3</v>
       </c>
       <c r="L222" s="1">
-        <f>(B$218/B$212)*(C222/B$212)</f>
+        <f t="shared" si="4"/>
         <v>4.530325443786982E-3</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.9123520710059169E-3</v>
       </c>
       <c r="N222" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7797707100591716E-3</v>
       </c>
       <c r="O222" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.6179733727810651E-3</v>
       </c>
-      <c r="P222" s="12">
-        <f t="shared" si="3"/>
+      <c r="P222" s="10">
+        <f t="shared" si="9"/>
         <v>1.1325813609467455E-3</v>
       </c>
-      <c r="Q222" s="11"/>
-      <c r="R222" s="12">
-        <f>SUM(G222:P222)</f>
+      <c r="Q222" s="9"/>
+      <c r="R222" s="10">
+        <f t="shared" si="5"/>
         <v>3.3653846153846152E-2</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G223" s="5"/>
-      <c r="P223" s="9"/>
-      <c r="Q223" s="16">
+      <c r="G223" s="3"/>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="18">
         <f>SUM(R213:R222)</f>
         <v>1</v>
       </c>
-      <c r="R223" s="17"/>
+      <c r="R223" s="19"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G224" s="11">
-        <f>SUM(G213:G222)</f>
+      <c r="A224" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B224" t="s">
+        <v>304</v>
+      </c>
+      <c r="C224" t="s">
+        <v>305</v>
+      </c>
+      <c r="G224" s="9">
+        <f t="shared" ref="G224:P224" si="10">SUM(G213:G222)</f>
         <v>0.16346153846153846</v>
       </c>
       <c r="H224" s="1">
-        <f>SUM(H213:H222)</f>
+        <f t="shared" si="10"/>
         <v>0.10576923076923077</v>
       </c>
       <c r="I224" s="1">
-        <f>SUM(I213:I222)</f>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="J224" s="1">
-        <f>SUM(J213:J222)</f>
+        <f t="shared" si="10"/>
         <v>0.10576923076923077</v>
       </c>
       <c r="K224" s="1">
-        <f>SUM(K213:K222)</f>
+        <f t="shared" si="10"/>
         <v>0.14423076923076925</v>
       </c>
       <c r="L224" s="1">
-        <f>SUM(L213:L222)</f>
+        <f t="shared" si="10"/>
         <v>0.13461538461538461</v>
       </c>
       <c r="M224" s="1">
-        <f>SUM(M213:M222)</f>
+        <f t="shared" si="10"/>
         <v>8.6538461538461536E-2</v>
       </c>
       <c r="N224" s="1">
-        <f>SUM(N213:N222)</f>
+        <f t="shared" si="10"/>
         <v>5.2884615384615384E-2</v>
       </c>
       <c r="O224" s="1">
-        <f>SUM(O213:O222)</f>
+        <f t="shared" si="10"/>
         <v>4.807692307692308E-2</v>
       </c>
-      <c r="P224" s="12">
-        <f>SUM(P213:P222)</f>
+      <c r="P224" s="10">
+        <f t="shared" si="10"/>
         <v>3.3653846153846152E-2</v>
       </c>
-      <c r="Q224" s="18"/>
-      <c r="R224" s="19"/>
+      <c r="Q224" s="20"/>
+      <c r="R224" s="21"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <f>34/208</f>
+        <v>0.16346153846153846</v>
+      </c>
+      <c r="C225">
+        <f>8/208</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="B226">
+        <f>22/208</f>
+        <v>0.10576923076923077</v>
+      </c>
+      <c r="C226">
+        <f>13/208</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="B227">
+        <f>26/208</f>
+        <v>0.125</v>
+      </c>
+      <c r="C227">
+        <f>15/208</f>
+        <v>7.2115384615384609E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <f>22/208</f>
+        <v>0.10576923076923077</v>
+      </c>
+      <c r="C228">
+        <f>21/208</f>
+        <v>0.10096153846153846</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="B229">
+        <f>30/208</f>
+        <v>0.14423076923076922</v>
+      </c>
+      <c r="C229">
+        <f>27/208</f>
+        <v>0.12980769230769232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="B230">
+        <f>28/208</f>
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="C230">
+        <f>34/208</f>
+        <v>0.16346153846153846</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <f>18/208</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="C231">
+        <f>33/208</f>
+        <v>0.15865384615384615</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="B232">
+        <f>11/208</f>
+        <v>5.2884615384615384E-2</v>
+      </c>
+      <c r="C232">
+        <f>31/208</f>
+        <v>0.14903846153846154</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="B233">
+        <f>10/208</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="C233">
+        <f>19/208</f>
+        <v>9.1346153846153841E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <f>7/208</f>
+        <v>3.3653846153846152E-2</v>
+      </c>
+      <c r="C234">
+        <f>7/208</f>
+        <v>3.3653846153846152E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17052,740 +17194,740 @@
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E211" s="2"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="3" t="s">
+      <c r="E211" s="14"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B212" s="20">
+      <c r="B212" s="11">
         <f>SUM(B213:B231)</f>
         <v>208</v>
       </c>
-      <c r="C212" s="21">
+      <c r="C212" s="12">
         <f>SUM(C213:C222)</f>
         <v>208</v>
       </c>
-      <c r="E212" s="14"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="4">
-        <v>4</v>
-      </c>
-      <c r="H212" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="I212" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="J212" s="4">
-        <v>3</v>
-      </c>
-      <c r="K212" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="L212" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="M212" s="4">
-        <v>2</v>
-      </c>
-      <c r="N212" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="O212" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="P212" s="4">
+      <c r="E212" s="16"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="2">
+        <v>4</v>
+      </c>
+      <c r="H212" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="I212" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="J212" s="2">
+        <v>3</v>
+      </c>
+      <c r="K212" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="L212" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="M212" s="2">
+        <v>2</v>
+      </c>
+      <c r="N212" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="O212" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="P212" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
-        <v>4</v>
-      </c>
-      <c r="B213" s="8">
+      <c r="A213" s="2">
+        <v>4</v>
+      </c>
+      <c r="B213" s="6">
         <f>COUNTIF(B2:B209,"4")</f>
         <v>14</v>
       </c>
-      <c r="C213" s="10">
+      <c r="C213" s="8">
         <f>COUNTIF(C2:C209,"4")</f>
         <v>8</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F213" s="4">
-        <v>4</v>
-      </c>
-      <c r="G213" s="5">
+      <c r="F213" s="2">
+        <v>4</v>
+      </c>
+      <c r="G213" s="3">
         <f>(B213/B212)*(C213/B212)</f>
         <v>2.5887573964497044E-3</v>
       </c>
-      <c r="H213" s="6">
-        <f>(B$214/B$212)*(C213/B$212)</f>
+      <c r="H213" s="4">
+        <f t="shared" ref="H213:H222" si="0">(B$214/B$212)*(C213/B$212)</f>
         <v>1.4792899408284025E-3</v>
       </c>
-      <c r="I213" s="6">
-        <f>(B$215/B$212)*(C213/B$212)</f>
+      <c r="I213" s="4">
+        <f t="shared" ref="I213:I222" si="1">(B$215/B$212)*(C213/B$212)</f>
         <v>1.8491124260355031E-3</v>
       </c>
-      <c r="J213" s="6">
-        <f>(B$216/B$212)*(C213/B$212)</f>
+      <c r="J213" s="4">
+        <f t="shared" ref="J213:J222" si="2">(B$216/B$212)*(C213/B$212)</f>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="K213" s="6">
-        <f>(B$217/B$212)*(C213/B$212)</f>
+      <c r="K213" s="4">
+        <f t="shared" ref="K213:K222" si="3">(B$217/B$212)*(C213/B$212)</f>
         <v>7.0266272189349116E-3</v>
       </c>
-      <c r="L213" s="6">
-        <f>(B$218/B$212)*(C213/B$212)</f>
+      <c r="L213" s="4">
+        <f t="shared" ref="L213:L222" si="4">(B$218/B$212)*(C213/B$212)</f>
         <v>6.4718934911242613E-3</v>
       </c>
-      <c r="M213" s="6">
+      <c r="M213" s="4">
         <f>(B$219/B$212)*(C213/B$212)</f>
         <v>6.4718934911242613E-3</v>
       </c>
-      <c r="N213" s="6">
+      <c r="N213" s="4">
         <f>(B$220/B$212)*(C213/B$212)</f>
         <v>4.2529585798816568E-3</v>
       </c>
-      <c r="O213" s="6">
+      <c r="O213" s="4">
         <f>(B$221/B$212)*(C213/B$212)</f>
         <v>2.0340236686390532E-3</v>
       </c>
-      <c r="P213" s="9">
+      <c r="P213" s="7">
         <f>(B$222/B$212)*(C213/B$212)</f>
         <v>1.4792899408284025E-3</v>
       </c>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="9">
-        <f>SUM(G213:P213)</f>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="7">
+        <f t="shared" ref="R213:R222" si="5">SUM(G213:P213)</f>
         <v>3.8461538461538471E-2</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="B214" s="8">
+      <c r="A214" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="B214" s="6">
         <f>COUNTIF(B2:B209,"3.67")</f>
         <v>8</v>
       </c>
-      <c r="C214" s="10">
+      <c r="C214" s="8">
         <f>COUNTIF(C2:C209,"3.67")</f>
         <v>13</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="G214" s="7">
+      <c r="E214" s="13"/>
+      <c r="F214" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="G214" s="5">
         <f>(B$213/B$212)*(C$214/B$212)</f>
         <v>4.206730769230769E-3</v>
       </c>
-      <c r="H214" s="8">
-        <f>(B$214/B$212)*(C214/B$212)</f>
+      <c r="H214" s="6">
+        <f t="shared" si="0"/>
         <v>2.403846153846154E-3</v>
       </c>
-      <c r="I214" s="8">
-        <f>(B$215/B$212)*(C214/B$212)</f>
+      <c r="I214" s="6">
+        <f t="shared" si="1"/>
         <v>3.0048076923076925E-3</v>
       </c>
-      <c r="J214" s="8">
-        <f>(B$216/B$212)*(C214/B$212)</f>
+      <c r="J214" s="6">
+        <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="K214" s="8">
-        <f>(B$217/B$212)*(C214/B$212)</f>
+      <c r="K214" s="6">
+        <f t="shared" si="3"/>
         <v>1.141826923076923E-2</v>
       </c>
-      <c r="L214" s="8">
-        <f>(B$218/B$212)*(C214/B$212)</f>
+      <c r="L214" s="6">
+        <f t="shared" si="4"/>
         <v>1.0516826923076924E-2</v>
       </c>
-      <c r="M214" s="8">
-        <f t="shared" ref="M214:M222" si="0">(B$219/B$212)*(C214/B$212)</f>
+      <c r="M214" s="6">
+        <f t="shared" ref="M214:M222" si="6">(B$219/B$212)*(C214/B$212)</f>
         <v>1.0516826923076924E-2</v>
       </c>
-      <c r="N214" s="8">
-        <f t="shared" ref="N214:N222" si="1">(B$220/B$212)*(C214/B$212)</f>
+      <c r="N214" s="6">
+        <f t="shared" ref="N214:N222" si="7">(B$220/B$212)*(C214/B$212)</f>
         <v>6.911057692307692E-3</v>
       </c>
-      <c r="O214" s="8">
-        <f t="shared" ref="O214:O222" si="2">(B$221/B$212)*(C214/B$212)</f>
+      <c r="O214" s="6">
+        <f t="shared" ref="O214:O222" si="8">(B$221/B$212)*(C214/B$212)</f>
         <v>3.3052884615384615E-3</v>
       </c>
-      <c r="P214" s="10">
-        <f t="shared" ref="P214:P222" si="3">(B$222/B$212)*(C214/B$212)</f>
+      <c r="P214" s="8">
+        <f t="shared" ref="P214:P222" si="9">(B$222/B$212)*(C214/B$212)</f>
         <v>2.403846153846154E-3</v>
       </c>
-      <c r="Q214" s="7"/>
-      <c r="R214" s="10">
-        <f>SUM(G214:P214)</f>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="8">
+        <f t="shared" si="5"/>
         <v>6.2500000000000014E-2</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="B215" s="8">
+      <c r="A215" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="B215" s="6">
         <f>COUNTIF(B2:B209,"3.33")</f>
         <v>10</v>
       </c>
-      <c r="C215" s="10">
+      <c r="C215" s="8">
         <f>COUNTIF(C2:C209,"3.33")</f>
         <v>15</v>
       </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="G215" s="7">
+      <c r="E215" s="13"/>
+      <c r="F215" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="G215" s="5">
         <f>(B$213/B$212)*(C$215/B$212)</f>
         <v>4.8539201183431949E-3</v>
       </c>
-      <c r="H215" s="8">
-        <f>(B$214/B$212)*(C215/B$212)</f>
+      <c r="H215" s="6">
+        <f t="shared" si="0"/>
         <v>2.7736686390532543E-3</v>
       </c>
-      <c r="I215" s="8">
-        <f>(B$215/B$212)*(C215/B$212)</f>
+      <c r="I215" s="6">
+        <f t="shared" si="1"/>
         <v>3.467085798816568E-3</v>
       </c>
-      <c r="J215" s="8">
-        <f>(B$216/B$212)*(C215/B$212)</f>
+      <c r="J215" s="6">
+        <f t="shared" si="2"/>
         <v>9.0144230769230761E-3</v>
       </c>
-      <c r="K215" s="8">
-        <f>(B$217/B$212)*(C215/B$212)</f>
+      <c r="K215" s="6">
+        <f t="shared" si="3"/>
         <v>1.3174926035502956E-2</v>
       </c>
-      <c r="L215" s="8">
-        <f>(B$218/B$212)*(C215/B$212)</f>
+      <c r="L215" s="6">
+        <f t="shared" si="4"/>
         <v>1.2134800295857989E-2</v>
       </c>
-      <c r="M215" s="8">
-        <f t="shared" si="0"/>
+      <c r="M215" s="6">
+        <f t="shared" si="6"/>
         <v>1.2134800295857989E-2</v>
       </c>
-      <c r="N215" s="8">
-        <f t="shared" si="1"/>
+      <c r="N215" s="6">
+        <f t="shared" si="7"/>
         <v>7.9742973372781047E-3</v>
       </c>
-      <c r="O215" s="8">
-        <f t="shared" si="2"/>
+      <c r="O215" s="6">
+        <f t="shared" si="8"/>
         <v>3.8137943786982244E-3</v>
       </c>
-      <c r="P215" s="10">
-        <f t="shared" si="3"/>
+      <c r="P215" s="8">
+        <f t="shared" si="9"/>
         <v>2.7736686390532543E-3</v>
       </c>
-      <c r="Q215" s="7"/>
-      <c r="R215" s="10">
-        <f>SUM(G215:P215)</f>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="8">
+        <f t="shared" si="5"/>
         <v>7.2115384615384595E-2</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
-        <v>3</v>
-      </c>
-      <c r="B216" s="8">
+      <c r="A216" s="2">
+        <v>3</v>
+      </c>
+      <c r="B216" s="6">
         <f>COUNTIF(B2:B209,"3")</f>
         <v>26</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="8">
         <f>COUNTIF(C2:C209,"3")</f>
         <v>21</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4">
-        <v>3</v>
-      </c>
-      <c r="G216" s="7">
+      <c r="E216" s="13"/>
+      <c r="F216" s="2">
+        <v>3</v>
+      </c>
+      <c r="G216" s="5">
         <f>(B$213/B$212)*(C$216/B$212)</f>
         <v>6.7954881656804734E-3</v>
       </c>
-      <c r="H216" s="8">
-        <f>(B$214/B$212)*(C216/B$212)</f>
+      <c r="H216" s="6">
+        <f t="shared" si="0"/>
         <v>3.8831360946745565E-3</v>
       </c>
-      <c r="I216" s="8">
-        <f>(B$215/B$212)*(C216/B$212)</f>
+      <c r="I216" s="6">
+        <f t="shared" si="1"/>
         <v>4.8539201183431958E-3</v>
       </c>
-      <c r="J216" s="8">
-        <f>(B$216/B$212)*(C216/B$212)</f>
+      <c r="J216" s="6">
+        <f t="shared" si="2"/>
         <v>1.2620192307692308E-2</v>
       </c>
-      <c r="K216" s="8">
-        <f>(B$217/B$212)*(C216/B$212)</f>
+      <c r="K216" s="6">
+        <f t="shared" si="3"/>
         <v>1.8444896449704141E-2</v>
       </c>
-      <c r="L216" s="8">
-        <f>(B$218/B$212)*(C216/B$212)</f>
+      <c r="L216" s="6">
+        <f t="shared" si="4"/>
         <v>1.6988720414201186E-2</v>
       </c>
-      <c r="M216" s="8">
-        <f t="shared" si="0"/>
+      <c r="M216" s="6">
+        <f t="shared" si="6"/>
         <v>1.6988720414201186E-2</v>
       </c>
-      <c r="N216" s="8">
-        <f t="shared" si="1"/>
+      <c r="N216" s="6">
+        <f t="shared" si="7"/>
         <v>1.116401627218935E-2</v>
       </c>
-      <c r="O216" s="8">
-        <f t="shared" si="2"/>
+      <c r="O216" s="6">
+        <f t="shared" si="8"/>
         <v>5.3393121301775152E-3</v>
       </c>
-      <c r="P216" s="10">
-        <f t="shared" si="3"/>
+      <c r="P216" s="8">
+        <f t="shared" si="9"/>
         <v>3.8831360946745565E-3</v>
       </c>
-      <c r="Q216" s="7"/>
-      <c r="R216" s="10">
-        <f>SUM(G216:P216)</f>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="8">
+        <f t="shared" si="5"/>
         <v>0.10096153846153848</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="B217" s="8">
+      <c r="A217" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="B217" s="6">
         <f>COUNTIF(B2:B209,"2.67")</f>
         <v>38</v>
       </c>
-      <c r="C217" s="10">
+      <c r="C217" s="8">
         <f>COUNTIF(C2:C209,"2.67")</f>
         <v>27</v>
       </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="G217" s="7">
+      <c r="E217" s="13"/>
+      <c r="F217" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="G217" s="5">
         <f>(B$213/B$212)*(C$217/B$212)</f>
         <v>8.737056213017751E-3</v>
       </c>
-      <c r="H217" s="8">
-        <f>(B$214/B$212)*(C217/B$212)</f>
+      <c r="H217" s="6">
+        <f t="shared" si="0"/>
         <v>4.9926035502958583E-3</v>
       </c>
-      <c r="I217" s="8">
-        <f>(B$215/B$212)*(C217/B$212)</f>
+      <c r="I217" s="6">
+        <f t="shared" si="1"/>
         <v>6.2407544378698231E-3</v>
       </c>
-      <c r="J217" s="8">
-        <f>(B$216/B$212)*(C217/B$212)</f>
+      <c r="J217" s="6">
+        <f t="shared" si="2"/>
         <v>1.622596153846154E-2</v>
       </c>
-      <c r="K217" s="8">
-        <f>(B$217/B$212)*(C217/B$212)</f>
+      <c r="K217" s="6">
+        <f t="shared" si="3"/>
         <v>2.3714866863905327E-2</v>
       </c>
-      <c r="L217" s="8">
-        <f>(B$218/B$212)*(C217/B$212)</f>
+      <c r="L217" s="6">
+        <f t="shared" si="4"/>
         <v>2.1842640532544384E-2</v>
       </c>
-      <c r="M217" s="8">
-        <f t="shared" si="0"/>
+      <c r="M217" s="6">
+        <f t="shared" si="6"/>
         <v>2.1842640532544384E-2</v>
       </c>
-      <c r="N217" s="8">
-        <f t="shared" si="1"/>
+      <c r="N217" s="6">
+        <f t="shared" si="7"/>
         <v>1.4353735207100593E-2</v>
       </c>
-      <c r="O217" s="8">
-        <f t="shared" si="2"/>
+      <c r="O217" s="6">
+        <f t="shared" si="8"/>
         <v>6.8648298816568051E-3</v>
       </c>
-      <c r="P217" s="10">
-        <f t="shared" si="3"/>
+      <c r="P217" s="8">
+        <f t="shared" si="9"/>
         <v>4.9926035502958583E-3</v>
       </c>
-      <c r="Q217" s="7"/>
-      <c r="R217" s="10">
-        <f>SUM(G217:P217)</f>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="8">
+        <f t="shared" si="5"/>
         <v>0.12980769230769232</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="B218" s="8">
+      <c r="A218" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="B218" s="6">
         <f>COUNTIF(B2:B209,"2.33")</f>
         <v>35</v>
       </c>
-      <c r="C218" s="10">
+      <c r="C218" s="8">
         <f>COUNTIF(C2:C209,"2.33")</f>
         <v>34</v>
       </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="G218" s="7">
+      <c r="E218" s="13"/>
+      <c r="F218" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="G218" s="5">
         <f>(B$213/B$212)*(C$218/B$212)</f>
         <v>1.1002218934911242E-2</v>
       </c>
-      <c r="H218" s="8">
-        <f>(B$214/B$212)*(C218/B$212)</f>
+      <c r="H218" s="6">
+        <f t="shared" si="0"/>
         <v>6.2869822485207101E-3</v>
       </c>
-      <c r="I218" s="8">
-        <f>(B$215/B$212)*(C218/B$212)</f>
+      <c r="I218" s="6">
+        <f t="shared" si="1"/>
         <v>7.8587278106508878E-3</v>
       </c>
-      <c r="J218" s="8">
-        <f>(B$216/B$212)*(C218/B$212)</f>
+      <c r="J218" s="6">
+        <f t="shared" si="2"/>
         <v>2.0432692307692308E-2</v>
       </c>
-      <c r="K218" s="8">
-        <f>(B$217/B$212)*(C218/B$212)</f>
+      <c r="K218" s="6">
+        <f t="shared" si="3"/>
         <v>2.9863165680473373E-2</v>
       </c>
-      <c r="L218" s="8">
-        <f>(B$218/B$212)*(C218/B$212)</f>
+      <c r="L218" s="6">
+        <f t="shared" si="4"/>
         <v>2.750554733727811E-2</v>
       </c>
-      <c r="M218" s="8">
-        <f t="shared" si="0"/>
+      <c r="M218" s="6">
+        <f t="shared" si="6"/>
         <v>2.750554733727811E-2</v>
       </c>
-      <c r="N218" s="8">
-        <f t="shared" si="1"/>
+      <c r="N218" s="6">
+        <f t="shared" si="7"/>
         <v>1.8075073964497042E-2</v>
       </c>
-      <c r="O218" s="8">
-        <f t="shared" si="2"/>
+      <c r="O218" s="6">
+        <f t="shared" si="8"/>
         <v>8.6446005917159771E-3</v>
       </c>
-      <c r="P218" s="10">
-        <f t="shared" si="3"/>
+      <c r="P218" s="8">
+        <f t="shared" si="9"/>
         <v>6.2869822485207101E-3</v>
       </c>
-      <c r="Q218" s="7"/>
-      <c r="R218" s="10">
-        <f>SUM(G218:P218)</f>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="8">
+        <f t="shared" si="5"/>
         <v>0.16346153846153846</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
-        <v>2</v>
-      </c>
-      <c r="B219" s="8">
+      <c r="A219" s="2">
+        <v>2</v>
+      </c>
+      <c r="B219" s="6">
         <f>COUNTIF(B2:B209,"2")</f>
         <v>35</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="8">
         <f>COUNTIF(C2:C209,"2")</f>
         <v>33</v>
       </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4">
-        <v>2</v>
-      </c>
-      <c r="G219" s="7">
+      <c r="E219" s="13"/>
+      <c r="F219" s="2">
+        <v>2</v>
+      </c>
+      <c r="G219" s="5">
         <f>(B$213/B$212)*(C$219/B$212)</f>
         <v>1.0678624260355029E-2</v>
       </c>
-      <c r="H219" s="8">
-        <f>(B$214/B$212)*(C219/B$212)</f>
+      <c r="H219" s="6">
+        <f t="shared" si="0"/>
         <v>6.1020710059171597E-3</v>
       </c>
-      <c r="I219" s="8">
-        <f>(B$215/B$212)*(C219/B$212)</f>
+      <c r="I219" s="6">
+        <f t="shared" si="1"/>
         <v>7.6275887573964496E-3</v>
       </c>
-      <c r="J219" s="8">
-        <f>(B$216/B$212)*(C219/B$212)</f>
+      <c r="J219" s="6">
+        <f t="shared" si="2"/>
         <v>1.9831730769230768E-2</v>
       </c>
-      <c r="K219" s="8">
-        <f>(B$217/B$212)*(C219/B$212)</f>
+      <c r="K219" s="6">
+        <f t="shared" si="3"/>
         <v>2.8984837278106506E-2</v>
       </c>
-      <c r="L219" s="8">
-        <f>(B$218/B$212)*(C219/B$212)</f>
+      <c r="L219" s="6">
+        <f t="shared" si="4"/>
         <v>2.6696560650887574E-2</v>
       </c>
-      <c r="M219" s="8">
-        <f t="shared" si="0"/>
+      <c r="M219" s="6">
+        <f t="shared" si="6"/>
         <v>2.6696560650887574E-2</v>
       </c>
-      <c r="N219" s="8">
-        <f t="shared" si="1"/>
+      <c r="N219" s="6">
+        <f t="shared" si="7"/>
         <v>1.7543454142011833E-2</v>
       </c>
-      <c r="O219" s="8">
-        <f t="shared" si="2"/>
+      <c r="O219" s="6">
+        <f t="shared" si="8"/>
         <v>8.3903476331360933E-3</v>
       </c>
-      <c r="P219" s="10">
-        <f t="shared" si="3"/>
+      <c r="P219" s="8">
+        <f t="shared" si="9"/>
         <v>6.1020710059171597E-3</v>
       </c>
-      <c r="Q219" s="7"/>
-      <c r="R219" s="10">
-        <f>SUM(G219:P219)</f>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="8">
+        <f t="shared" si="5"/>
         <v>0.15865384615384617</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="B220" s="8">
+      <c r="A220" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="B220" s="6">
         <f>COUNTIF(B2:B209,"1.67")</f>
         <v>23</v>
       </c>
-      <c r="C220" s="10">
+      <c r="C220" s="8">
         <f>COUNTIF(C2:C209,"1.67")</f>
         <v>31</v>
       </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="G220" s="7">
+      <c r="E220" s="13"/>
+      <c r="F220" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="G220" s="5">
         <f>(B$213/B$212)*(C$220/B$212)</f>
         <v>1.0031434911242603E-2</v>
       </c>
-      <c r="H220" s="8">
-        <f>(B$214/B$212)*(C220/B$212)</f>
+      <c r="H220" s="6">
+        <f t="shared" si="0"/>
         <v>5.7322485207100598E-3</v>
       </c>
-      <c r="I220" s="8">
-        <f>(B$215/B$212)*(C220/B$212)</f>
+      <c r="I220" s="6">
+        <f t="shared" si="1"/>
         <v>7.1653106508875741E-3</v>
       </c>
-      <c r="J220" s="8">
-        <f>(B$216/B$212)*(C220/B$212)</f>
+      <c r="J220" s="6">
+        <f t="shared" si="2"/>
         <v>1.8629807692307692E-2</v>
       </c>
-      <c r="K220" s="8">
-        <f>(B$217/B$212)*(C220/B$212)</f>
+      <c r="K220" s="6">
+        <f t="shared" si="3"/>
         <v>2.722818047337278E-2</v>
       </c>
-      <c r="L220" s="8">
-        <f>(B$218/B$212)*(C220/B$212)</f>
+      <c r="L220" s="6">
+        <f t="shared" si="4"/>
         <v>2.5078587278106509E-2</v>
       </c>
-      <c r="M220" s="8">
-        <f t="shared" si="0"/>
+      <c r="M220" s="6">
+        <f t="shared" si="6"/>
         <v>2.5078587278106509E-2</v>
       </c>
-      <c r="N220" s="8">
-        <f t="shared" si="1"/>
+      <c r="N220" s="6">
+        <f t="shared" si="7"/>
         <v>1.6480214497041418E-2</v>
       </c>
-      <c r="O220" s="8">
-        <f t="shared" si="2"/>
+      <c r="O220" s="6">
+        <f t="shared" si="8"/>
         <v>7.8818417159763308E-3</v>
       </c>
-      <c r="P220" s="10">
-        <f t="shared" si="3"/>
+      <c r="P220" s="8">
+        <f t="shared" si="9"/>
         <v>5.7322485207100598E-3</v>
       </c>
-      <c r="Q220" s="7"/>
-      <c r="R220" s="10">
-        <f>SUM(G220:P220)</f>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="8">
+        <f t="shared" si="5"/>
         <v>0.14903846153846154</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="B221" s="8">
+      <c r="A221" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="B221" s="6">
         <f>COUNTIF(B2:B209,"1.33")</f>
         <v>11</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C221" s="8">
         <f>COUNTIF(C2:C209,"1.33")</f>
         <v>19</v>
       </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="G221" s="7">
+      <c r="E221" s="13"/>
+      <c r="F221" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="G221" s="5">
         <f>(B$213/B$212)*(C$221/B$212)</f>
         <v>6.1482988165680466E-3</v>
       </c>
-      <c r="H221" s="8">
-        <f>(B$214/B$212)*(C221/B$212)</f>
+      <c r="H221" s="6">
+        <f t="shared" si="0"/>
         <v>3.5133136094674558E-3</v>
       </c>
-      <c r="I221" s="8">
-        <f>(B$215/B$212)*(C221/B$212)</f>
+      <c r="I221" s="6">
+        <f t="shared" si="1"/>
         <v>4.3916420118343194E-3</v>
       </c>
-      <c r="J221" s="8">
-        <f>(B$216/B$212)*(C221/B$212)</f>
+      <c r="J221" s="6">
+        <f t="shared" si="2"/>
         <v>1.141826923076923E-2</v>
       </c>
-      <c r="K221" s="8">
-        <f>(B$217/B$212)*(C221/B$212)</f>
+      <c r="K221" s="6">
+        <f t="shared" si="3"/>
         <v>1.6688239644970411E-2</v>
       </c>
-      <c r="L221" s="8">
-        <f>(B$218/B$212)*(C221/B$212)</f>
+      <c r="L221" s="6">
+        <f t="shared" si="4"/>
         <v>1.5370747041420118E-2</v>
       </c>
-      <c r="M221" s="8">
-        <f t="shared" si="0"/>
+      <c r="M221" s="6">
+        <f t="shared" si="6"/>
         <v>1.5370747041420118E-2</v>
       </c>
-      <c r="N221" s="8">
-        <f t="shared" si="1"/>
+      <c r="N221" s="6">
+        <f t="shared" si="7"/>
         <v>1.0100776627218934E-2</v>
       </c>
-      <c r="O221" s="8">
-        <f t="shared" si="2"/>
+      <c r="O221" s="6">
+        <f t="shared" si="8"/>
         <v>4.830806213017751E-3</v>
       </c>
-      <c r="P221" s="10">
-        <f t="shared" si="3"/>
+      <c r="P221" s="8">
+        <f t="shared" si="9"/>
         <v>3.5133136094674558E-3</v>
       </c>
-      <c r="Q221" s="7"/>
-      <c r="R221" s="10">
-        <f>SUM(G221:P221)</f>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="8">
+        <f t="shared" si="5"/>
         <v>9.1346153846153841E-2</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="2">
         <v>1</v>
       </c>
       <c r="B222" s="1">
         <f>COUNTIF(B2:B209,"1")</f>
         <v>8</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="10">
         <f>COUNTIF(C2:C209,"1")</f>
         <v>7</v>
       </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="4">
+      <c r="E222" s="13"/>
+      <c r="F222" s="2">
         <v>1</v>
       </c>
-      <c r="G222" s="11">
+      <c r="G222" s="9">
         <f>(B$213/B$212)*(C$222/B$212)</f>
         <v>2.265162721893491E-3</v>
       </c>
       <c r="H222" s="1">
-        <f>(B$214/B$212)*(C222/B$212)</f>
+        <f t="shared" si="0"/>
         <v>1.2943786982248522E-3</v>
       </c>
       <c r="I222" s="1">
-        <f>(B$215/B$212)*(C222/B$212)</f>
+        <f t="shared" si="1"/>
         <v>1.6179733727810651E-3</v>
       </c>
       <c r="J222" s="1">
-        <f>(B$216/B$212)*(C222/B$212)</f>
+        <f t="shared" si="2"/>
         <v>4.206730769230769E-3</v>
       </c>
       <c r="K222" s="1">
-        <f>(B$217/B$212)*(C222/B$212)</f>
+        <f t="shared" si="3"/>
         <v>6.1482988165680466E-3</v>
       </c>
       <c r="L222" s="1">
-        <f>(B$218/B$212)*(C222/B$212)</f>
+        <f t="shared" si="4"/>
         <v>5.6629068047337281E-3</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6629068047337281E-3</v>
       </c>
       <c r="N222" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.7213387573964492E-3</v>
       </c>
       <c r="O222" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.7797707100591716E-3</v>
       </c>
-      <c r="P222" s="12">
-        <f t="shared" si="3"/>
+      <c r="P222" s="10">
+        <f t="shared" si="9"/>
         <v>1.2943786982248522E-3</v>
       </c>
-      <c r="Q222" s="11"/>
-      <c r="R222" s="12">
-        <f>SUM(G222:P222)</f>
+      <c r="Q222" s="9"/>
+      <c r="R222" s="10">
+        <f t="shared" si="5"/>
         <v>3.3653846153846152E-2</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G223" s="5"/>
-      <c r="P223" s="9"/>
-      <c r="Q223" s="16">
+      <c r="G223" s="3"/>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="18">
         <f>SUM(R213:R222)</f>
         <v>1</v>
       </c>
-      <c r="R223" s="17"/>
+      <c r="R223" s="19"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G224" s="11">
-        <f>SUM(G213:G222)</f>
+      <c r="G224" s="9">
+        <f t="shared" ref="G224:P224" si="10">SUM(G213:G222)</f>
         <v>6.7307692307692304E-2</v>
       </c>
       <c r="H224" s="1">
-        <f>SUM(H213:H222)</f>
+        <f t="shared" si="10"/>
         <v>3.8461538461538457E-2</v>
       </c>
       <c r="I224" s="1">
-        <f>SUM(I213:I222)</f>
+        <f t="shared" si="10"/>
         <v>4.807692307692308E-2</v>
       </c>
       <c r="J224" s="1">
-        <f>SUM(J213:J222)</f>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="K224" s="1">
-        <f>SUM(K213:K222)</f>
+        <f t="shared" si="10"/>
         <v>0.18269230769230768</v>
       </c>
       <c r="L224" s="1">
-        <f>SUM(L213:L222)</f>
+        <f t="shared" si="10"/>
         <v>0.16826923076923075</v>
       </c>
       <c r="M224" s="1">
-        <f>SUM(M213:M222)</f>
+        <f t="shared" si="10"/>
         <v>0.16826923076923075</v>
       </c>
       <c r="N224" s="1">
-        <f>SUM(N213:N222)</f>
+        <f t="shared" si="10"/>
         <v>0.11057692307692309</v>
       </c>
       <c r="O224" s="1">
-        <f>SUM(O213:O222)</f>
+        <f t="shared" si="10"/>
         <v>5.2884615384615384E-2</v>
       </c>
-      <c r="P224" s="12">
-        <f>SUM(P213:P222)</f>
+      <c r="P224" s="10">
+        <f t="shared" si="10"/>
         <v>3.8461538461538457E-2</v>
       </c>
-      <c r="Q224" s="18"/>
-      <c r="R224" s="19"/>
+      <c r="Q224" s="20"/>
+      <c r="R224" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17802,8 +17944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="K205" sqref="K205"/>
+    <sheetView topLeftCell="D205" workbookViewId="0">
+      <selection activeCell="Q212" sqref="Q212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20119,740 +20261,740 @@
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E211" s="2"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="3" t="s">
+      <c r="E211" s="14"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B212" s="20">
+      <c r="B212" s="11">
         <f>SUM(B213:B231)</f>
         <v>208</v>
       </c>
-      <c r="C212" s="21">
+      <c r="C212" s="12">
         <f>SUM(C213:C222)</f>
         <v>208</v>
       </c>
-      <c r="E212" s="14"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="4">
-        <v>4</v>
-      </c>
-      <c r="H212" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="I212" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="J212" s="4">
-        <v>3</v>
-      </c>
-      <c r="K212" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="L212" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="M212" s="4">
-        <v>2</v>
-      </c>
-      <c r="N212" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="O212" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="P212" s="4">
+      <c r="E212" s="16"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="2">
+        <v>4</v>
+      </c>
+      <c r="H212" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="I212" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="J212" s="2">
+        <v>3</v>
+      </c>
+      <c r="K212" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="L212" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="M212" s="2">
+        <v>2</v>
+      </c>
+      <c r="N212" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="O212" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="P212" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
-        <v>4</v>
-      </c>
-      <c r="B213" s="8">
+      <c r="A213" s="2">
+        <v>4</v>
+      </c>
+      <c r="B213" s="6">
         <f>COUNTIF(B2:B209,"4")</f>
         <v>20</v>
       </c>
-      <c r="C213" s="10">
+      <c r="C213" s="8">
         <f>COUNTIF(C2:C209,"4")</f>
         <v>8</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F213" s="4">
-        <v>4</v>
-      </c>
-      <c r="G213" s="5">
+      <c r="F213" s="2">
+        <v>4</v>
+      </c>
+      <c r="G213" s="3">
         <f>(B213/B212)*(C213/B212)</f>
         <v>3.6982248520710062E-3</v>
       </c>
-      <c r="H213" s="6">
-        <f>(B$214/B$212)*(C213/B$212)</f>
+      <c r="H213" s="4">
+        <f t="shared" ref="H213:H222" si="0">(B$214/B$212)*(C213/B$212)</f>
         <v>3.3284023668639054E-3</v>
       </c>
-      <c r="I213" s="6">
-        <f>(B$215/B$212)*(C213/B$212)</f>
+      <c r="I213" s="4">
+        <f t="shared" ref="I213:I222" si="1">(B$215/B$212)*(C213/B$212)</f>
         <v>4.6227810650887576E-3</v>
       </c>
-      <c r="J213" s="6">
-        <f>(B$216/B$212)*(C213/B$212)</f>
+      <c r="J213" s="4">
+        <f t="shared" ref="J213:J222" si="2">(B$216/B$212)*(C213/B$212)</f>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="K213" s="6">
-        <f>(B$217/B$212)*(C213/B$212)</f>
+      <c r="K213" s="4">
+        <f t="shared" ref="K213:K222" si="3">(B$217/B$212)*(C213/B$212)</f>
         <v>5.3624260355029591E-3</v>
       </c>
-      <c r="L213" s="6">
-        <f>(B$218/B$212)*(C213/B$212)</f>
+      <c r="L213" s="4">
+        <f t="shared" ref="L213:L222" si="4">(B$218/B$212)*(C213/B$212)</f>
         <v>5.5473372781065086E-3</v>
       </c>
-      <c r="M213" s="6">
+      <c r="M213" s="4">
         <f>(B$219/B$212)*(C213/B$212)</f>
         <v>3.3284023668639054E-3</v>
       </c>
-      <c r="N213" s="6">
+      <c r="N213" s="4">
         <f>(B$220/B$212)*(C213/B$212)</f>
         <v>3.5133136094674558E-3</v>
       </c>
-      <c r="O213" s="6">
+      <c r="O213" s="4">
         <f>(B$221/B$212)*(C213/B$212)</f>
         <v>2.2189349112426036E-3</v>
       </c>
-      <c r="P213" s="9">
+      <c r="P213" s="7">
         <f>(B$222/B$212)*(C213/B$212)</f>
         <v>2.0340236686390532E-3</v>
       </c>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="9">
-        <f>SUM(G213:P213)</f>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="7">
+        <f t="shared" ref="R213:R222" si="5">SUM(G213:P213)</f>
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="B214" s="8">
+      <c r="A214" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="B214" s="6">
         <f>COUNTIF(B2:B209,"3.67")</f>
         <v>18</v>
       </c>
-      <c r="C214" s="10">
+      <c r="C214" s="8">
         <f>COUNTIF(C2:C209,"3.67")</f>
         <v>13</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="G214" s="7">
+      <c r="E214" s="13"/>
+      <c r="F214" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="G214" s="5">
         <f>(B$213/B$212)*(C$214/B$212)</f>
         <v>6.0096153846153849E-3</v>
       </c>
-      <c r="H214" s="8">
-        <f>(B$214/B$212)*(C214/B$212)</f>
+      <c r="H214" s="6">
+        <f t="shared" si="0"/>
         <v>5.408653846153846E-3</v>
       </c>
-      <c r="I214" s="8">
-        <f>(B$215/B$212)*(C214/B$212)</f>
+      <c r="I214" s="6">
+        <f t="shared" si="1"/>
         <v>7.512019230769231E-3</v>
       </c>
-      <c r="J214" s="8">
-        <f>(B$216/B$212)*(C214/B$212)</f>
+      <c r="J214" s="6">
+        <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="K214" s="8">
-        <f>(B$217/B$212)*(C214/B$212)</f>
+      <c r="K214" s="6">
+        <f t="shared" si="3"/>
         <v>8.713942307692308E-3</v>
       </c>
-      <c r="L214" s="8">
-        <f>(B$218/B$212)*(C214/B$212)</f>
+      <c r="L214" s="6">
+        <f t="shared" si="4"/>
         <v>9.0144230769230761E-3</v>
       </c>
-      <c r="M214" s="8">
-        <f t="shared" ref="M214:M222" si="0">(B$219/B$212)*(C214/B$212)</f>
+      <c r="M214" s="6">
+        <f t="shared" ref="M214:M222" si="6">(B$219/B$212)*(C214/B$212)</f>
         <v>5.408653846153846E-3</v>
       </c>
-      <c r="N214" s="8">
-        <f t="shared" ref="N214:N222" si="1">(B$220/B$212)*(C214/B$212)</f>
+      <c r="N214" s="6">
+        <f t="shared" ref="N214:N222" si="7">(B$220/B$212)*(C214/B$212)</f>
         <v>5.7091346153846151E-3</v>
       </c>
-      <c r="O214" s="8">
-        <f t="shared" ref="O214:O222" si="2">(B$221/B$212)*(C214/B$212)</f>
+      <c r="O214" s="6">
+        <f t="shared" ref="O214:O222" si="8">(B$221/B$212)*(C214/B$212)</f>
         <v>3.605769230769231E-3</v>
       </c>
-      <c r="P214" s="10">
-        <f t="shared" ref="P214:P222" si="3">(B$222/B$212)*(C214/B$212)</f>
+      <c r="P214" s="8">
+        <f t="shared" ref="P214:P222" si="9">(B$222/B$212)*(C214/B$212)</f>
         <v>3.3052884615384615E-3</v>
       </c>
-      <c r="Q214" s="7"/>
-      <c r="R214" s="10">
-        <f>SUM(G214:P214)</f>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="8">
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="B215" s="8">
+      <c r="A215" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="B215" s="6">
         <f>COUNTIF(B2:B209,"3.33")</f>
         <v>25</v>
       </c>
-      <c r="C215" s="10">
+      <c r="C215" s="8">
         <f>COUNTIF(C2:C209,"3.33")</f>
         <v>15</v>
       </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="G215" s="7">
+      <c r="E215" s="13"/>
+      <c r="F215" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="G215" s="5">
         <f>(B$213/B$212)*(C$215/B$212)</f>
         <v>6.9341715976331359E-3</v>
       </c>
-      <c r="H215" s="8">
-        <f>(B$214/B$212)*(C215/B$212)</f>
-        <v>6.2407544378698214E-3</v>
-      </c>
-      <c r="I215" s="8">
-        <f>(B$215/B$212)*(C215/B$212)</f>
-        <v>8.6677144970414201E-3</v>
-      </c>
-      <c r="J215" s="8">
-        <f>(B$216/B$212)*(C215/B$212)</f>
-        <v>9.0144230769230761E-3</v>
-      </c>
-      <c r="K215" s="8">
-        <f>(B$217/B$212)*(C215/B$212)</f>
-        <v>1.0054548816568048E-2</v>
-      </c>
-      <c r="L215" s="8">
-        <f>(B$218/B$212)*(C215/B$212)</f>
-        <v>1.0401257396449702E-2</v>
-      </c>
-      <c r="M215" s="8">
+      <c r="H215" s="6">
         <f t="shared" si="0"/>
         <v>6.2407544378698214E-3</v>
       </c>
-      <c r="N215" s="8">
+      <c r="I215" s="6">
         <f t="shared" si="1"/>
+        <v>8.6677144970414201E-3</v>
+      </c>
+      <c r="J215" s="6">
+        <f t="shared" si="2"/>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="K215" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0054548816568048E-2</v>
+      </c>
+      <c r="L215" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0401257396449702E-2</v>
+      </c>
+      <c r="M215" s="6">
+        <f t="shared" si="6"/>
+        <v>6.2407544378698214E-3</v>
+      </c>
+      <c r="N215" s="6">
+        <f t="shared" si="7"/>
         <v>6.5874630177514782E-3</v>
       </c>
-      <c r="O215" s="8">
-        <f t="shared" si="2"/>
+      <c r="O215" s="6">
+        <f t="shared" si="8"/>
         <v>4.1605029585798812E-3</v>
       </c>
-      <c r="P215" s="10">
-        <f t="shared" si="3"/>
+      <c r="P215" s="8">
+        <f t="shared" si="9"/>
         <v>3.8137943786982244E-3</v>
       </c>
-      <c r="Q215" s="7"/>
-      <c r="R215" s="10">
-        <f>SUM(G215:P215)</f>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="8">
+        <f t="shared" si="5"/>
         <v>7.2115384615384609E-2</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
-        <v>3</v>
-      </c>
-      <c r="B216" s="8">
+      <c r="A216" s="2">
+        <v>3</v>
+      </c>
+      <c r="B216" s="6">
         <f>COUNTIF(B2:B209,"3")</f>
         <v>26</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="8">
         <f>COUNTIF(C2:C209,"3")</f>
         <v>21</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4">
-        <v>3</v>
-      </c>
-      <c r="G216" s="7">
+      <c r="E216" s="13"/>
+      <c r="F216" s="2">
+        <v>3</v>
+      </c>
+      <c r="G216" s="5">
         <f>(B$213/B$212)*(C$216/B$212)</f>
         <v>9.7078402366863915E-3</v>
       </c>
-      <c r="H216" s="8">
-        <f>(B$214/B$212)*(C216/B$212)</f>
-        <v>8.737056213017751E-3</v>
-      </c>
-      <c r="I216" s="8">
-        <f>(B$215/B$212)*(C216/B$212)</f>
-        <v>1.2134800295857989E-2</v>
-      </c>
-      <c r="J216" s="8">
-        <f>(B$216/B$212)*(C216/B$212)</f>
-        <v>1.2620192307692308E-2</v>
-      </c>
-      <c r="K216" s="8">
-        <f>(B$217/B$212)*(C216/B$212)</f>
-        <v>1.4076368343195266E-2</v>
-      </c>
-      <c r="L216" s="8">
-        <f>(B$218/B$212)*(C216/B$212)</f>
-        <v>1.4561760355029586E-2</v>
-      </c>
-      <c r="M216" s="8">
+      <c r="H216" s="6">
         <f t="shared" si="0"/>
         <v>8.737056213017751E-3</v>
       </c>
-      <c r="N216" s="8">
+      <c r="I216" s="6">
         <f t="shared" si="1"/>
+        <v>1.2134800295857989E-2</v>
+      </c>
+      <c r="J216" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2620192307692308E-2</v>
+      </c>
+      <c r="K216" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4076368343195266E-2</v>
+      </c>
+      <c r="L216" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4561760355029586E-2</v>
+      </c>
+      <c r="M216" s="6">
+        <f t="shared" si="6"/>
+        <v>8.737056213017751E-3</v>
+      </c>
+      <c r="N216" s="6">
+        <f t="shared" si="7"/>
         <v>9.2224482248520704E-3</v>
       </c>
-      <c r="O216" s="8">
-        <f t="shared" si="2"/>
+      <c r="O216" s="6">
+        <f t="shared" si="8"/>
         <v>5.8247041420118346E-3</v>
       </c>
-      <c r="P216" s="10">
-        <f t="shared" si="3"/>
+      <c r="P216" s="8">
+        <f t="shared" si="9"/>
         <v>5.3393121301775152E-3</v>
       </c>
-      <c r="Q216" s="7"/>
-      <c r="R216" s="10">
-        <f>SUM(G216:P216)</f>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="8">
+        <f t="shared" si="5"/>
         <v>0.10096153846153846</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="B217" s="8">
+      <c r="A217" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="B217" s="6">
         <f>COUNTIF(B2:B209,"2.67")</f>
         <v>29</v>
       </c>
-      <c r="C217" s="10">
+      <c r="C217" s="8">
         <f>COUNTIF(C2:C209,"2.67")</f>
         <v>27</v>
       </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="G217" s="7">
+      <c r="E217" s="13"/>
+      <c r="F217" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="G217" s="5">
         <f>(B$213/B$212)*(C$217/B$212)</f>
         <v>1.2481508875739646E-2</v>
       </c>
-      <c r="H217" s="8">
-        <f>(B$214/B$212)*(C217/B$212)</f>
-        <v>1.1233357988165681E-2</v>
-      </c>
-      <c r="I217" s="8">
-        <f>(B$215/B$212)*(C217/B$212)</f>
-        <v>1.5601886094674559E-2</v>
-      </c>
-      <c r="J217" s="8">
-        <f>(B$216/B$212)*(C217/B$212)</f>
-        <v>1.622596153846154E-2</v>
-      </c>
-      <c r="K217" s="8">
-        <f>(B$217/B$212)*(C217/B$212)</f>
-        <v>1.8098187869822487E-2</v>
-      </c>
-      <c r="L217" s="8">
-        <f>(B$218/B$212)*(C217/B$212)</f>
-        <v>1.8722263313609468E-2</v>
-      </c>
-      <c r="M217" s="8">
+      <c r="H217" s="6">
         <f t="shared" si="0"/>
         <v>1.1233357988165681E-2</v>
       </c>
-      <c r="N217" s="8">
+      <c r="I217" s="6">
         <f t="shared" si="1"/>
+        <v>1.5601886094674559E-2</v>
+      </c>
+      <c r="J217" s="6">
+        <f t="shared" si="2"/>
+        <v>1.622596153846154E-2</v>
+      </c>
+      <c r="K217" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8098187869822487E-2</v>
+      </c>
+      <c r="L217" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8722263313609468E-2</v>
+      </c>
+      <c r="M217" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1233357988165681E-2</v>
+      </c>
+      <c r="N217" s="6">
+        <f t="shared" si="7"/>
         <v>1.1857433431952663E-2</v>
       </c>
-      <c r="O217" s="8">
-        <f t="shared" si="2"/>
+      <c r="O217" s="6">
+        <f t="shared" si="8"/>
         <v>7.4889053254437879E-3</v>
       </c>
-      <c r="P217" s="10">
-        <f t="shared" si="3"/>
+      <c r="P217" s="8">
+        <f t="shared" si="9"/>
         <v>6.8648298816568051E-3</v>
       </c>
-      <c r="Q217" s="7"/>
-      <c r="R217" s="10">
-        <f>SUM(G217:P217)</f>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="8">
+        <f t="shared" si="5"/>
         <v>0.12980769230769232</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="B218" s="8">
+      <c r="A218" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="B218" s="6">
         <f>COUNTIF(B2:B209,"2.33")</f>
         <v>30</v>
       </c>
-      <c r="C218" s="10">
+      <c r="C218" s="8">
         <f>COUNTIF(C2:C209,"2.33")</f>
         <v>34</v>
       </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="G218" s="7">
+      <c r="E218" s="13"/>
+      <c r="F218" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="G218" s="5">
         <f>(B$213/B$212)*(C$218/B$212)</f>
         <v>1.5717455621301776E-2</v>
       </c>
-      <c r="H218" s="8">
-        <f>(B$214/B$212)*(C218/B$212)</f>
-        <v>1.4145710059171597E-2</v>
-      </c>
-      <c r="I218" s="8">
-        <f>(B$215/B$212)*(C218/B$212)</f>
-        <v>1.964681952662722E-2</v>
-      </c>
-      <c r="J218" s="8">
-        <f>(B$216/B$212)*(C218/B$212)</f>
-        <v>2.0432692307692308E-2</v>
-      </c>
-      <c r="K218" s="8">
-        <f>(B$217/B$212)*(C218/B$212)</f>
-        <v>2.2790310650887574E-2</v>
-      </c>
-      <c r="L218" s="8">
-        <f>(B$218/B$212)*(C218/B$212)</f>
-        <v>2.3576183431952662E-2</v>
-      </c>
-      <c r="M218" s="8">
+      <c r="H218" s="6">
         <f t="shared" si="0"/>
         <v>1.4145710059171597E-2</v>
       </c>
-      <c r="N218" s="8">
+      <c r="I218" s="6">
         <f t="shared" si="1"/>
+        <v>1.964681952662722E-2</v>
+      </c>
+      <c r="J218" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0432692307692308E-2</v>
+      </c>
+      <c r="K218" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2790310650887574E-2</v>
+      </c>
+      <c r="L218" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3576183431952662E-2</v>
+      </c>
+      <c r="M218" s="6">
+        <f t="shared" si="6"/>
+        <v>1.4145710059171597E-2</v>
+      </c>
+      <c r="N218" s="6">
+        <f t="shared" si="7"/>
         <v>1.4931582840236686E-2</v>
       </c>
-      <c r="O218" s="8">
-        <f t="shared" si="2"/>
+      <c r="O218" s="6">
+        <f t="shared" si="8"/>
         <v>9.4304733727810664E-3</v>
       </c>
-      <c r="P218" s="10">
-        <f t="shared" si="3"/>
+      <c r="P218" s="8">
+        <f t="shared" si="9"/>
         <v>8.6446005917159771E-3</v>
       </c>
-      <c r="Q218" s="7"/>
-      <c r="R218" s="10">
-        <f>SUM(G218:P218)</f>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="8">
+        <f t="shared" si="5"/>
         <v>0.16346153846153846</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
-        <v>2</v>
-      </c>
-      <c r="B219" s="8">
+      <c r="A219" s="2">
+        <v>2</v>
+      </c>
+      <c r="B219" s="6">
         <f>COUNTIF(B2:B209,"2")</f>
         <v>18</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="8">
         <f>COUNTIF(C2:C209,"2")</f>
         <v>33</v>
       </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4">
-        <v>2</v>
-      </c>
-      <c r="G219" s="7">
+      <c r="E219" s="13"/>
+      <c r="F219" s="2">
+        <v>2</v>
+      </c>
+      <c r="G219" s="5">
         <f>(B$213/B$212)*(C$219/B$212)</f>
         <v>1.5255177514792899E-2</v>
       </c>
-      <c r="H219" s="8">
-        <f>(B$214/B$212)*(C219/B$212)</f>
-        <v>1.3729659763313608E-2</v>
-      </c>
-      <c r="I219" s="8">
-        <f>(B$215/B$212)*(C219/B$212)</f>
-        <v>1.9068971893491125E-2</v>
-      </c>
-      <c r="J219" s="8">
-        <f>(B$216/B$212)*(C219/B$212)</f>
-        <v>1.9831730769230768E-2</v>
-      </c>
-      <c r="K219" s="8">
-        <f>(B$217/B$212)*(C219/B$212)</f>
-        <v>2.2120007396449703E-2</v>
-      </c>
-      <c r="L219" s="8">
-        <f>(B$218/B$212)*(C219/B$212)</f>
-        <v>2.2882766272189346E-2</v>
-      </c>
-      <c r="M219" s="8">
+      <c r="H219" s="6">
         <f t="shared" si="0"/>
         <v>1.3729659763313608E-2</v>
       </c>
-      <c r="N219" s="8">
+      <c r="I219" s="6">
         <f t="shared" si="1"/>
+        <v>1.9068971893491125E-2</v>
+      </c>
+      <c r="J219" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9831730769230768E-2</v>
+      </c>
+      <c r="K219" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2120007396449703E-2</v>
+      </c>
+      <c r="L219" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2882766272189346E-2</v>
+      </c>
+      <c r="M219" s="6">
+        <f t="shared" si="6"/>
+        <v>1.3729659763313608E-2</v>
+      </c>
+      <c r="N219" s="6">
+        <f t="shared" si="7"/>
         <v>1.4492418639053253E-2</v>
       </c>
-      <c r="O219" s="8">
-        <f t="shared" si="2"/>
+      <c r="O219" s="6">
+        <f t="shared" si="8"/>
         <v>9.1531065088757396E-3</v>
       </c>
-      <c r="P219" s="10">
-        <f t="shared" si="3"/>
+      <c r="P219" s="8">
+        <f t="shared" si="9"/>
         <v>8.3903476331360933E-3</v>
       </c>
-      <c r="Q219" s="7"/>
-      <c r="R219" s="10">
-        <f>SUM(G219:P219)</f>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="8">
+        <f t="shared" si="5"/>
         <v>0.15865384615384617</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="B220" s="8">
+      <c r="A220" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="B220" s="6">
         <f>COUNTIF(B2:B209,"1.67")</f>
         <v>19</v>
       </c>
-      <c r="C220" s="10">
+      <c r="C220" s="8">
         <f>COUNTIF(C2:C209,"1.67")</f>
         <v>31</v>
       </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="G220" s="7">
+      <c r="E220" s="13"/>
+      <c r="F220" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="G220" s="5">
         <f>(B$213/B$212)*(C$220/B$212)</f>
         <v>1.4330621301775148E-2</v>
       </c>
-      <c r="H220" s="8">
-        <f>(B$214/B$212)*(C220/B$212)</f>
-        <v>1.2897559171597633E-2</v>
-      </c>
-      <c r="I220" s="8">
-        <f>(B$215/B$212)*(C220/B$212)</f>
-        <v>1.7913276627218935E-2</v>
-      </c>
-      <c r="J220" s="8">
-        <f>(B$216/B$212)*(C220/B$212)</f>
-        <v>1.8629807692307692E-2</v>
-      </c>
-      <c r="K220" s="8">
-        <f>(B$217/B$212)*(C220/B$212)</f>
-        <v>2.0779400887573966E-2</v>
-      </c>
-      <c r="L220" s="8">
-        <f>(B$218/B$212)*(C220/B$212)</f>
-        <v>2.1495931952662719E-2</v>
-      </c>
-      <c r="M220" s="8">
+      <c r="H220" s="6">
         <f t="shared" si="0"/>
         <v>1.2897559171597633E-2</v>
       </c>
-      <c r="N220" s="8">
+      <c r="I220" s="6">
         <f t="shared" si="1"/>
+        <v>1.7913276627218935E-2</v>
+      </c>
+      <c r="J220" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8629807692307692E-2</v>
+      </c>
+      <c r="K220" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0779400887573966E-2</v>
+      </c>
+      <c r="L220" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1495931952662719E-2</v>
+      </c>
+      <c r="M220" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2897559171597633E-2</v>
+      </c>
+      <c r="N220" s="6">
+        <f t="shared" si="7"/>
         <v>1.361409023668639E-2</v>
       </c>
-      <c r="O220" s="8">
-        <f t="shared" si="2"/>
+      <c r="O220" s="6">
+        <f t="shared" si="8"/>
         <v>8.5983727810650893E-3</v>
       </c>
-      <c r="P220" s="10">
-        <f t="shared" si="3"/>
+      <c r="P220" s="8">
+        <f t="shared" si="9"/>
         <v>7.8818417159763308E-3</v>
       </c>
-      <c r="Q220" s="7"/>
-      <c r="R220" s="10">
-        <f>SUM(G220:P220)</f>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="8">
+        <f t="shared" si="5"/>
         <v>0.14903846153846154</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="B221" s="8">
+      <c r="A221" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="B221" s="6">
         <f>COUNTIF(B2:B209,"1.33")</f>
         <v>12</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C221" s="8">
         <f>COUNTIF(C2:C209,"1.33")</f>
         <v>19</v>
       </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="G221" s="7">
+      <c r="E221" s="13"/>
+      <c r="F221" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="G221" s="5">
         <f>(B$213/B$212)*(C$221/B$212)</f>
         <v>8.7832840236686388E-3</v>
       </c>
-      <c r="H221" s="8">
-        <f>(B$214/B$212)*(C221/B$212)</f>
-        <v>7.9049556213017739E-3</v>
-      </c>
-      <c r="I221" s="8">
-        <f>(B$215/B$212)*(C221/B$212)</f>
-        <v>1.0979105029585799E-2</v>
-      </c>
-      <c r="J221" s="8">
-        <f>(B$216/B$212)*(C221/B$212)</f>
-        <v>1.141826923076923E-2</v>
-      </c>
-      <c r="K221" s="8">
-        <f>(B$217/B$212)*(C221/B$212)</f>
-        <v>1.2735761834319527E-2</v>
-      </c>
-      <c r="L221" s="8">
-        <f>(B$218/B$212)*(C221/B$212)</f>
-        <v>1.3174926035502956E-2</v>
-      </c>
-      <c r="M221" s="8">
+      <c r="H221" s="6">
         <f t="shared" si="0"/>
         <v>7.9049556213017739E-3</v>
       </c>
-      <c r="N221" s="8">
+      <c r="I221" s="6">
         <f t="shared" si="1"/>
+        <v>1.0979105029585799E-2</v>
+      </c>
+      <c r="J221" s="6">
+        <f t="shared" si="2"/>
+        <v>1.141826923076923E-2</v>
+      </c>
+      <c r="K221" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2735761834319527E-2</v>
+      </c>
+      <c r="L221" s="6">
+        <f t="shared" si="4"/>
+        <v>1.3174926035502956E-2</v>
+      </c>
+      <c r="M221" s="6">
+        <f t="shared" si="6"/>
+        <v>7.9049556213017739E-3</v>
+      </c>
+      <c r="N221" s="6">
+        <f t="shared" si="7"/>
         <v>8.3441198224852055E-3</v>
       </c>
-      <c r="O221" s="8">
-        <f t="shared" si="2"/>
+      <c r="O221" s="6">
+        <f t="shared" si="8"/>
         <v>5.2699704142011835E-3</v>
       </c>
-      <c r="P221" s="10">
-        <f t="shared" si="3"/>
+      <c r="P221" s="8">
+        <f t="shared" si="9"/>
         <v>4.830806213017751E-3</v>
       </c>
-      <c r="Q221" s="7"/>
-      <c r="R221" s="10">
-        <f>SUM(G221:P221)</f>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="8">
+        <f t="shared" si="5"/>
         <v>9.1346153846153841E-2</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="2">
         <v>1</v>
       </c>
       <c r="B222" s="1">
         <f>COUNTIF(B2:B209,"1")</f>
         <v>11</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="10">
         <f>COUNTIF(C2:C209,"1")</f>
         <v>7</v>
       </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="4">
+      <c r="E222" s="13"/>
+      <c r="F222" s="2">
         <v>1</v>
       </c>
-      <c r="G222" s="11">
+      <c r="G222" s="9">
         <f>(B$213/B$212)*(C$222/B$212)</f>
         <v>3.2359467455621302E-3</v>
       </c>
       <c r="H222" s="1">
-        <f>(B$214/B$212)*(C222/B$212)</f>
-        <v>2.9123520710059169E-3</v>
-      </c>
-      <c r="I222" s="1">
-        <f>(B$215/B$212)*(C222/B$212)</f>
-        <v>4.0449334319526626E-3</v>
-      </c>
-      <c r="J222" s="1">
-        <f>(B$216/B$212)*(C222/B$212)</f>
-        <v>4.206730769230769E-3</v>
-      </c>
-      <c r="K222" s="1">
-        <f>(B$217/B$212)*(C222/B$212)</f>
-        <v>4.6921227810650884E-3</v>
-      </c>
-      <c r="L222" s="1">
-        <f>(B$218/B$212)*(C222/B$212)</f>
-        <v>4.8539201183431949E-3</v>
-      </c>
-      <c r="M222" s="1">
         <f t="shared" si="0"/>
         <v>2.9123520710059169E-3</v>
       </c>
+      <c r="I222" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0449334319526626E-3</v>
+      </c>
+      <c r="J222" s="1">
+        <f t="shared" si="2"/>
+        <v>4.206730769230769E-3</v>
+      </c>
+      <c r="K222" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6921227810650884E-3</v>
+      </c>
+      <c r="L222" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8539201183431949E-3</v>
+      </c>
+      <c r="M222" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9123520710059169E-3</v>
+      </c>
       <c r="N222" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.0741494082840233E-3</v>
       </c>
       <c r="O222" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.941568047337278E-3</v>
       </c>
-      <c r="P222" s="12">
-        <f t="shared" si="3"/>
+      <c r="P222" s="10">
+        <f t="shared" si="9"/>
         <v>1.7797707100591716E-3</v>
       </c>
-      <c r="Q222" s="11"/>
-      <c r="R222" s="12">
-        <f>SUM(G222:P222)</f>
+      <c r="Q222" s="9"/>
+      <c r="R222" s="10">
+        <f t="shared" si="5"/>
         <v>3.3653846153846152E-2</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G223" s="5"/>
-      <c r="P223" s="9"/>
-      <c r="Q223" s="16">
+      <c r="G223" s="3"/>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="18">
         <f>SUM(R213:R222)</f>
         <v>1</v>
       </c>
-      <c r="R223" s="17"/>
+      <c r="R223" s="19"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G224" s="11">
-        <f>SUM(G213:G222)</f>
+      <c r="G224" s="9">
+        <f t="shared" ref="G224:P224" si="10">SUM(G213:G222)</f>
         <v>9.6153846153846159E-2</v>
       </c>
       <c r="H224" s="1">
-        <f>SUM(H213:H222)</f>
+        <f t="shared" si="10"/>
         <v>8.6538461538461536E-2</v>
       </c>
       <c r="I224" s="1">
-        <f>SUM(I213:I222)</f>
+        <f t="shared" si="10"/>
         <v>0.1201923076923077</v>
       </c>
       <c r="J224" s="1">
-        <f>SUM(J213:J222)</f>
+        <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
       <c r="K224" s="1">
-        <f>SUM(K213:K222)</f>
+        <f t="shared" si="10"/>
         <v>0.13942307692307693</v>
       </c>
       <c r="L224" s="1">
-        <f>SUM(L213:L222)</f>
+        <f t="shared" si="10"/>
         <v>0.14423076923076925</v>
       </c>
       <c r="M224" s="1">
-        <f>SUM(M213:M222)</f>
+        <f t="shared" si="10"/>
         <v>8.6538461538461536E-2</v>
       </c>
       <c r="N224" s="1">
-        <f>SUM(N213:N222)</f>
+        <f t="shared" si="10"/>
         <v>9.1346153846153841E-2</v>
       </c>
       <c r="O224" s="1">
-        <f>SUM(O213:O222)</f>
+        <f t="shared" si="10"/>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="P224" s="12">
-        <f>SUM(P213:P222)</f>
+      <c r="P224" s="10">
+        <f t="shared" si="10"/>
         <v>5.2884615384615384E-2</v>
       </c>
-      <c r="Q224" s="18"/>
-      <c r="R224" s="19"/>
+      <c r="Q224" s="20"/>
+      <c r="R224" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ITC,CP,DS,DB.xlsx
+++ b/ITC,CP,DS,DB.xlsx
@@ -11671,8 +11671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="J231" sqref="J231"/>
+    <sheetView tabSelected="1" topLeftCell="C210" workbookViewId="0">
+      <selection activeCell="Q218" sqref="Q218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ITC,CP,DS,DB.xlsx
+++ b/ITC,CP,DS,DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="454" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="454" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="75-25" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -11671,8 +11671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C210" workbookViewId="0">
-      <selection activeCell="Q218" sqref="Q218"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14067,27 +14067,27 @@
         <v>4</v>
       </c>
       <c r="G213" s="3">
-        <f>(B213/B212)*(C213/B212)</f>
+        <f>((B213/B212)*(C213/B212))</f>
         <v>6.2869822485207101E-3</v>
       </c>
       <c r="H213" s="4">
-        <f t="shared" ref="H213:H222" si="0">(B$214/B$212)*(C213/B$212)</f>
+        <f>((B$214/B$212)*(C213/B$212))</f>
         <v>4.0680473372781065E-3</v>
       </c>
       <c r="I213" s="4">
-        <f t="shared" ref="I213:I222" si="1">(B$215/B$212)*(C213/B$212)</f>
+        <f t="shared" ref="I213:I222" si="0">(B$215/B$212)*(C213/B$212)</f>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="J213" s="4">
-        <f t="shared" ref="J213:J222" si="2">(B$216/B$212)*(C213/B$212)</f>
+        <f t="shared" ref="J213:J222" si="1">(B$216/B$212)*(C213/B$212)</f>
         <v>4.0680473372781065E-3</v>
       </c>
       <c r="K213" s="4">
-        <f t="shared" ref="K213:K222" si="3">(B$217/B$212)*(C213/B$212)</f>
+        <f t="shared" ref="K213:K222" si="2">(B$217/B$212)*(C213/B$212)</f>
         <v>5.5473372781065086E-3</v>
       </c>
       <c r="L213" s="4">
-        <f t="shared" ref="L213:L222" si="4">(B$218/B$212)*(C213/B$212)</f>
+        <f t="shared" ref="L213:L222" si="3">(B$218/B$212)*(C213/B$212)</f>
         <v>5.1775147928994087E-3</v>
       </c>
       <c r="M213" s="4">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="Q213" s="3"/>
       <c r="R213" s="7">
-        <f t="shared" ref="R213:R222" si="5">SUM(G213:P213)</f>
+        <f t="shared" ref="R213:R222" si="4">SUM(G213:P213)</f>
         <v>3.8461538461538471E-2</v>
       </c>
     </row>
@@ -14129,48 +14129,48 @@
         <v>3.67</v>
       </c>
       <c r="G214" s="5">
-        <f>(B$213/B$212)*(C$214/B$212)</f>
+        <f>((B$213/B$212)*(C$214/B$212))</f>
         <v>1.0216346153846154E-2</v>
       </c>
       <c r="H214" s="6">
+        <f>((B$214/B$212)*(C214/B$212))</f>
+        <v>6.610576923076923E-3</v>
+      </c>
+      <c r="I214" s="6">
         <f t="shared" si="0"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="J214" s="6">
+        <f t="shared" si="1"/>
         <v>6.610576923076923E-3</v>
       </c>
-      <c r="I214" s="6">
-        <f t="shared" si="1"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="J214" s="6">
+      <c r="K214" s="6">
         <f t="shared" si="2"/>
-        <v>6.610576923076923E-3</v>
-      </c>
-      <c r="K214" s="6">
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="L214" s="6">
         <f t="shared" si="3"/>
-        <v>9.0144230769230761E-3</v>
-      </c>
-      <c r="L214" s="6">
-        <f t="shared" si="4"/>
         <v>8.4134615384615381E-3</v>
       </c>
       <c r="M214" s="6">
-        <f t="shared" ref="M214:M222" si="6">(B$219/B$212)*(C214/B$212)</f>
+        <f t="shared" ref="M214:M222" si="5">(B$219/B$212)*(C214/B$212)</f>
         <v>5.408653846153846E-3</v>
       </c>
       <c r="N214" s="6">
-        <f t="shared" ref="N214:N222" si="7">(B$220/B$212)*(C214/B$212)</f>
+        <f t="shared" ref="N214:N222" si="6">(B$220/B$212)*(C214/B$212)</f>
         <v>3.3052884615384615E-3</v>
       </c>
       <c r="O214" s="6">
-        <f t="shared" ref="O214:O222" si="8">(B$221/B$212)*(C214/B$212)</f>
+        <f t="shared" ref="O214:O222" si="7">(B$221/B$212)*(C214/B$212)</f>
         <v>3.0048076923076925E-3</v>
       </c>
       <c r="P214" s="8">
-        <f t="shared" ref="P214:P222" si="9">(B$222/B$212)*(C214/B$212)</f>
+        <f t="shared" ref="P214:P222" si="8">(B$222/B$212)*(C214/B$212)</f>
         <v>2.1033653846153845E-3</v>
       </c>
       <c r="Q214" s="5"/>
       <c r="R214" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -14191,48 +14191,48 @@
         <v>3.33</v>
       </c>
       <c r="G215" s="5">
-        <f>(B$213/B$212)*(C$215/B$212)</f>
+        <f>((B$213/B$212)*(C$215/B$212))</f>
         <v>1.1788091715976331E-2</v>
       </c>
       <c r="H215" s="6">
+        <f>((B$214/B$212)*(C215/B$212))</f>
+        <v>7.6275887573964488E-3</v>
+      </c>
+      <c r="I215" s="6">
         <f t="shared" si="0"/>
+        <v>9.0144230769230761E-3</v>
+      </c>
+      <c r="J215" s="6">
+        <f t="shared" si="1"/>
         <v>7.6275887573964488E-3</v>
       </c>
-      <c r="I215" s="6">
-        <f t="shared" si="1"/>
-        <v>9.0144230769230761E-3</v>
-      </c>
-      <c r="J215" s="6">
+      <c r="K215" s="6">
         <f t="shared" si="2"/>
-        <v>7.6275887573964488E-3</v>
-      </c>
-      <c r="K215" s="6">
+        <v>1.0401257396449702E-2</v>
+      </c>
+      <c r="L215" s="6">
         <f t="shared" si="3"/>
-        <v>1.0401257396449702E-2</v>
-      </c>
-      <c r="L215" s="6">
-        <f t="shared" si="4"/>
         <v>9.7078402366863898E-3</v>
       </c>
       <c r="M215" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2407544378698214E-3</v>
+      </c>
+      <c r="N215" s="6">
         <f t="shared" si="6"/>
-        <v>6.2407544378698214E-3</v>
-      </c>
-      <c r="N215" s="6">
+        <v>3.8137943786982244E-3</v>
+      </c>
+      <c r="O215" s="6">
         <f t="shared" si="7"/>
-        <v>3.8137943786982244E-3</v>
-      </c>
-      <c r="O215" s="6">
+        <v>3.467085798816568E-3</v>
+      </c>
+      <c r="P215" s="8">
         <f t="shared" si="8"/>
-        <v>3.467085798816568E-3</v>
-      </c>
-      <c r="P215" s="8">
-        <f t="shared" si="9"/>
         <v>2.4269600591715975E-3</v>
       </c>
       <c r="Q215" s="5"/>
       <c r="R215" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2115384615384609E-2</v>
       </c>
     </row>
@@ -14253,48 +14253,48 @@
         <v>3</v>
       </c>
       <c r="G216" s="5">
-        <f>(B$213/B$212)*(C$216/B$212)</f>
+        <f>((B$213/B$212)*(C$216/B$212))</f>
         <v>1.6503328402366863E-2</v>
       </c>
       <c r="H216" s="6">
+        <f t="shared" ref="H213:H222" si="9">(B$214/B$212)*(C216/B$212)</f>
+        <v>1.067862426035503E-2</v>
+      </c>
+      <c r="I216" s="6">
         <f t="shared" si="0"/>
+        <v>1.2620192307692308E-2</v>
+      </c>
+      <c r="J216" s="6">
+        <f t="shared" si="1"/>
         <v>1.067862426035503E-2</v>
       </c>
-      <c r="I216" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2620192307692308E-2</v>
-      </c>
-      <c r="J216" s="6">
+      <c r="K216" s="6">
         <f t="shared" si="2"/>
-        <v>1.067862426035503E-2</v>
-      </c>
-      <c r="K216" s="6">
+        <v>1.4561760355029586E-2</v>
+      </c>
+      <c r="L216" s="6">
         <f t="shared" si="3"/>
-        <v>1.4561760355029586E-2</v>
-      </c>
-      <c r="L216" s="6">
-        <f t="shared" si="4"/>
         <v>1.3590976331360947E-2</v>
       </c>
       <c r="M216" s="6">
+        <f t="shared" si="5"/>
+        <v>8.737056213017751E-3</v>
+      </c>
+      <c r="N216" s="6">
         <f t="shared" si="6"/>
-        <v>8.737056213017751E-3</v>
-      </c>
-      <c r="N216" s="6">
+        <v>5.3393121301775152E-3</v>
+      </c>
+      <c r="O216" s="6">
         <f t="shared" si="7"/>
-        <v>5.3393121301775152E-3</v>
-      </c>
-      <c r="O216" s="6">
+        <v>4.8539201183431958E-3</v>
+      </c>
+      <c r="P216" s="8">
         <f t="shared" si="8"/>
-        <v>4.8539201183431958E-3</v>
-      </c>
-      <c r="P216" s="8">
-        <f t="shared" si="9"/>
         <v>3.3977440828402367E-3</v>
       </c>
       <c r="Q216" s="5"/>
       <c r="R216" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10096153846153846</v>
       </c>
     </row>
@@ -14315,48 +14315,48 @@
         <v>2.67</v>
       </c>
       <c r="G217" s="5">
-        <f>(B$213/B$212)*(C$217/B$212)</f>
+        <f>((B$213/B$212)*(C$217/B$212))</f>
         <v>2.1218565088757399E-2</v>
       </c>
       <c r="H217" s="6">
+        <f t="shared" si="9"/>
+        <v>1.372965976331361E-2</v>
+      </c>
+      <c r="I217" s="6">
         <f t="shared" si="0"/>
+        <v>1.622596153846154E-2</v>
+      </c>
+      <c r="J217" s="6">
+        <f t="shared" si="1"/>
         <v>1.372965976331361E-2</v>
       </c>
-      <c r="I217" s="6">
-        <f t="shared" si="1"/>
-        <v>1.622596153846154E-2</v>
-      </c>
-      <c r="J217" s="6">
+      <c r="K217" s="6">
         <f t="shared" si="2"/>
-        <v>1.372965976331361E-2</v>
-      </c>
-      <c r="K217" s="6">
+        <v>1.8722263313609468E-2</v>
+      </c>
+      <c r="L217" s="6">
         <f t="shared" si="3"/>
-        <v>1.8722263313609468E-2</v>
-      </c>
-      <c r="L217" s="6">
-        <f t="shared" si="4"/>
         <v>1.7474112426035502E-2</v>
       </c>
       <c r="M217" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1233357988165681E-2</v>
+      </c>
+      <c r="N217" s="6">
         <f t="shared" si="6"/>
-        <v>1.1233357988165681E-2</v>
-      </c>
-      <c r="N217" s="6">
+        <v>6.8648298816568051E-3</v>
+      </c>
+      <c r="O217" s="6">
         <f t="shared" si="7"/>
-        <v>6.8648298816568051E-3</v>
-      </c>
-      <c r="O217" s="6">
+        <v>6.2407544378698231E-3</v>
+      </c>
+      <c r="P217" s="8">
         <f t="shared" si="8"/>
-        <v>6.2407544378698231E-3</v>
-      </c>
-      <c r="P217" s="8">
-        <f t="shared" si="9"/>
         <v>4.3685281065088755E-3</v>
       </c>
       <c r="Q217" s="5"/>
       <c r="R217" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12980769230769232</v>
       </c>
     </row>
@@ -14377,48 +14377,48 @@
         <v>2.33</v>
       </c>
       <c r="G218" s="5">
-        <f>(B$213/B$212)*(C$218/B$212)</f>
+        <f>((B$213/B$212)*(C$218/B$212))</f>
         <v>2.6719674556213019E-2</v>
       </c>
       <c r="H218" s="6">
+        <f t="shared" si="9"/>
+        <v>1.7289201183431954E-2</v>
+      </c>
+      <c r="I218" s="6">
         <f t="shared" si="0"/>
+        <v>2.0432692307692308E-2</v>
+      </c>
+      <c r="J218" s="6">
+        <f t="shared" si="1"/>
         <v>1.7289201183431954E-2</v>
       </c>
-      <c r="I218" s="6">
-        <f t="shared" si="1"/>
-        <v>2.0432692307692308E-2</v>
-      </c>
-      <c r="J218" s="6">
+      <c r="K218" s="6">
         <f t="shared" si="2"/>
-        <v>1.7289201183431954E-2</v>
-      </c>
-      <c r="K218" s="6">
+        <v>2.3576183431952662E-2</v>
+      </c>
+      <c r="L218" s="6">
         <f t="shared" si="3"/>
-        <v>2.3576183431952662E-2</v>
-      </c>
-      <c r="L218" s="6">
-        <f t="shared" si="4"/>
         <v>2.2004437869822483E-2</v>
       </c>
       <c r="M218" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4145710059171597E-2</v>
+      </c>
+      <c r="N218" s="6">
         <f t="shared" si="6"/>
-        <v>1.4145710059171597E-2</v>
-      </c>
-      <c r="N218" s="6">
+        <v>8.6446005917159771E-3</v>
+      </c>
+      <c r="O218" s="6">
         <f t="shared" si="7"/>
-        <v>8.6446005917159771E-3</v>
-      </c>
-      <c r="O218" s="6">
+        <v>7.8587278106508878E-3</v>
+      </c>
+      <c r="P218" s="8">
         <f t="shared" si="8"/>
-        <v>7.8587278106508878E-3</v>
-      </c>
-      <c r="P218" s="8">
-        <f t="shared" si="9"/>
         <v>5.5011094674556208E-3</v>
       </c>
       <c r="Q218" s="5"/>
       <c r="R218" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16346153846153846</v>
       </c>
     </row>
@@ -14439,48 +14439,48 @@
         <v>2</v>
       </c>
       <c r="G219" s="5">
-        <f>(B$213/B$212)*(C$219/B$212)</f>
+        <f>((B$213/B$212)*(C$219/B$212))</f>
         <v>2.5933801775147928E-2</v>
       </c>
       <c r="H219" s="6">
+        <f t="shared" si="9"/>
+        <v>1.6780695266272187E-2</v>
+      </c>
+      <c r="I219" s="6">
         <f t="shared" si="0"/>
+        <v>1.9831730769230768E-2</v>
+      </c>
+      <c r="J219" s="6">
+        <f t="shared" si="1"/>
         <v>1.6780695266272187E-2</v>
       </c>
-      <c r="I219" s="6">
-        <f t="shared" si="1"/>
-        <v>1.9831730769230768E-2</v>
-      </c>
-      <c r="J219" s="6">
+      <c r="K219" s="6">
         <f t="shared" si="2"/>
-        <v>1.6780695266272187E-2</v>
-      </c>
-      <c r="K219" s="6">
+        <v>2.2882766272189346E-2</v>
+      </c>
+      <c r="L219" s="6">
         <f t="shared" si="3"/>
-        <v>2.2882766272189346E-2</v>
-      </c>
-      <c r="L219" s="6">
-        <f t="shared" si="4"/>
         <v>2.1357248520710057E-2</v>
       </c>
       <c r="M219" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3729659763313608E-2</v>
+      </c>
+      <c r="N219" s="6">
         <f t="shared" si="6"/>
-        <v>1.3729659763313608E-2</v>
-      </c>
-      <c r="N219" s="6">
+        <v>8.3903476331360933E-3</v>
+      </c>
+      <c r="O219" s="6">
         <f t="shared" si="7"/>
-        <v>8.3903476331360933E-3</v>
-      </c>
-      <c r="O219" s="6">
+        <v>7.6275887573964496E-3</v>
+      </c>
+      <c r="P219" s="8">
         <f t="shared" si="8"/>
-        <v>7.6275887573964496E-3</v>
-      </c>
-      <c r="P219" s="8">
-        <f t="shared" si="9"/>
         <v>5.3393121301775143E-3</v>
       </c>
       <c r="Q219" s="5"/>
       <c r="R219" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15865384615384615</v>
       </c>
     </row>
@@ -14501,48 +14501,48 @@
         <v>1.67</v>
       </c>
       <c r="G220" s="5">
-        <f>(B$213/B$212)*(C$220/B$212)</f>
+        <f>((B$213/B$212)*(C$220/B$212))</f>
         <v>2.4362056213017753E-2</v>
       </c>
       <c r="H220" s="6">
+        <f t="shared" si="9"/>
+        <v>1.5763683431952662E-2</v>
+      </c>
+      <c r="I220" s="6">
         <f t="shared" si="0"/>
+        <v>1.8629807692307692E-2</v>
+      </c>
+      <c r="J220" s="6">
+        <f t="shared" si="1"/>
         <v>1.5763683431952662E-2</v>
       </c>
-      <c r="I220" s="6">
-        <f t="shared" si="1"/>
-        <v>1.8629807692307692E-2</v>
-      </c>
-      <c r="J220" s="6">
+      <c r="K220" s="6">
         <f t="shared" si="2"/>
-        <v>1.5763683431952662E-2</v>
-      </c>
-      <c r="K220" s="6">
+        <v>2.1495931952662719E-2</v>
+      </c>
+      <c r="L220" s="6">
         <f t="shared" si="3"/>
-        <v>2.1495931952662719E-2</v>
-      </c>
-      <c r="L220" s="6">
-        <f t="shared" si="4"/>
         <v>2.0062869822485205E-2</v>
       </c>
       <c r="M220" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2897559171597633E-2</v>
+      </c>
+      <c r="N220" s="6">
         <f t="shared" si="6"/>
-        <v>1.2897559171597633E-2</v>
-      </c>
-      <c r="N220" s="6">
+        <v>7.8818417159763308E-3</v>
+      </c>
+      <c r="O220" s="6">
         <f t="shared" si="7"/>
-        <v>7.8818417159763308E-3</v>
-      </c>
-      <c r="O220" s="6">
+        <v>7.1653106508875741E-3</v>
+      </c>
+      <c r="P220" s="8">
         <f t="shared" si="8"/>
-        <v>7.1653106508875741E-3</v>
-      </c>
-      <c r="P220" s="8">
-        <f t="shared" si="9"/>
         <v>5.0157174556213014E-3</v>
       </c>
       <c r="Q220" s="5"/>
       <c r="R220" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14903846153846154</v>
       </c>
     </row>
@@ -14563,48 +14563,48 @@
         <v>1.33</v>
       </c>
       <c r="G221" s="5">
-        <f>(B$213/B$212)*(C$221/B$212)</f>
+        <f>((B$213/B$212)*(C$221/B$212))</f>
         <v>1.4931582840236686E-2</v>
       </c>
       <c r="H221" s="6">
+        <f t="shared" si="9"/>
+        <v>9.661612426035502E-3</v>
+      </c>
+      <c r="I221" s="6">
         <f t="shared" si="0"/>
+        <v>1.141826923076923E-2</v>
+      </c>
+      <c r="J221" s="6">
+        <f t="shared" si="1"/>
         <v>9.661612426035502E-3</v>
       </c>
-      <c r="I221" s="6">
-        <f t="shared" si="1"/>
-        <v>1.141826923076923E-2</v>
-      </c>
-      <c r="J221" s="6">
+      <c r="K221" s="6">
         <f t="shared" si="2"/>
-        <v>9.661612426035502E-3</v>
-      </c>
-      <c r="K221" s="6">
+        <v>1.3174926035502956E-2</v>
+      </c>
+      <c r="L221" s="6">
         <f t="shared" si="3"/>
-        <v>1.3174926035502956E-2</v>
-      </c>
-      <c r="L221" s="6">
-        <f t="shared" si="4"/>
         <v>1.2296597633136093E-2</v>
       </c>
       <c r="M221" s="6">
+        <f t="shared" si="5"/>
+        <v>7.9049556213017739E-3</v>
+      </c>
+      <c r="N221" s="6">
         <f t="shared" si="6"/>
-        <v>7.9049556213017739E-3</v>
-      </c>
-      <c r="N221" s="6">
+        <v>4.830806213017751E-3</v>
+      </c>
+      <c r="O221" s="6">
         <f t="shared" si="7"/>
-        <v>4.830806213017751E-3</v>
-      </c>
-      <c r="O221" s="6">
+        <v>4.3916420118343194E-3</v>
+      </c>
+      <c r="P221" s="8">
         <f t="shared" si="8"/>
-        <v>4.3916420118343194E-3</v>
-      </c>
-      <c r="P221" s="8">
-        <f t="shared" si="9"/>
         <v>3.0741494082840233E-3</v>
       </c>
       <c r="Q221" s="5"/>
       <c r="R221" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.1346153846153869E-2</v>
       </c>
     </row>
@@ -14625,48 +14625,48 @@
         <v>1</v>
       </c>
       <c r="G222" s="9">
-        <f>(B$213/B$212)*(C$222/B$212)</f>
+        <f>((B$213/B$212)*(C$222/B$212))</f>
         <v>5.5011094674556208E-3</v>
       </c>
       <c r="H222" s="1">
+        <f t="shared" si="9"/>
+        <v>3.5595414201183432E-3</v>
+      </c>
+      <c r="I222" s="1">
         <f t="shared" si="0"/>
+        <v>4.206730769230769E-3</v>
+      </c>
+      <c r="J222" s="1">
+        <f t="shared" si="1"/>
         <v>3.5595414201183432E-3</v>
       </c>
-      <c r="I222" s="1">
-        <f t="shared" si="1"/>
-        <v>4.206730769230769E-3</v>
-      </c>
-      <c r="J222" s="1">
+      <c r="K222" s="1">
         <f t="shared" si="2"/>
-        <v>3.5595414201183432E-3</v>
-      </c>
-      <c r="K222" s="1">
+        <v>4.8539201183431949E-3</v>
+      </c>
+      <c r="L222" s="1">
         <f t="shared" si="3"/>
-        <v>4.8539201183431949E-3</v>
-      </c>
-      <c r="L222" s="1">
-        <f t="shared" si="4"/>
         <v>4.530325443786982E-3</v>
       </c>
       <c r="M222" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9123520710059169E-3</v>
+      </c>
+      <c r="N222" s="1">
         <f t="shared" si="6"/>
-        <v>2.9123520710059169E-3</v>
-      </c>
-      <c r="N222" s="1">
+        <v>1.7797707100591716E-3</v>
+      </c>
+      <c r="O222" s="1">
         <f t="shared" si="7"/>
-        <v>1.7797707100591716E-3</v>
-      </c>
-      <c r="O222" s="1">
+        <v>1.6179733727810651E-3</v>
+      </c>
+      <c r="P222" s="10">
         <f t="shared" si="8"/>
-        <v>1.6179733727810651E-3</v>
-      </c>
-      <c r="P222" s="10">
-        <f t="shared" si="9"/>
         <v>1.1325813609467455E-3</v>
       </c>
       <c r="Q222" s="9"/>
       <c r="R222" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3653846153846152E-2</v>
       </c>
     </row>
@@ -14875,10 +14875,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R236"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="M214" sqref="M214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17214,7 +17214,7 @@
         <v>303</v>
       </c>
       <c r="B212" s="11">
-        <f>SUM(B213:B231)</f>
+        <f>SUM(B213:B222)</f>
         <v>208</v>
       </c>
       <c r="C212" s="12">
@@ -17928,6 +17928,147 @@
       </c>
       <c r="Q224" s="20"/>
       <c r="R224" s="21"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B226" t="s">
+        <v>306</v>
+      </c>
+      <c r="C226" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>4</v>
+      </c>
+      <c r="B227">
+        <f>B213/B$212</f>
+        <v>6.7307692307692304E-2</v>
+      </c>
+      <c r="C227">
+        <f>C213/C$212</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="B228">
+        <f t="shared" ref="B228:C236" si="11">B214/B$212</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="11"/>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="11"/>
+        <v>7.2115384615384609E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="11"/>
+        <v>0.10096153846153846</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="11"/>
+        <v>0.18269230769230768</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="11"/>
+        <v>0.12980769230769232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="11"/>
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="11"/>
+        <v>0.16346153846153846</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="11"/>
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="11"/>
+        <v>0.15865384615384615</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="11"/>
+        <v>0.11057692307692307</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="11"/>
+        <v>0.14903846153846154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="11"/>
+        <v>5.2884615384615384E-2</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="11"/>
+        <v>9.1346153846153841E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="11"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="11"/>
+        <v>3.3653846153846152E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17942,10 +18083,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView topLeftCell="D205" workbookViewId="0">
-      <selection activeCell="Q212" sqref="Q212"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20281,7 +20422,7 @@
         <v>303</v>
       </c>
       <c r="B212" s="11">
-        <f>SUM(B213:B231)</f>
+        <f>SUM(B213:B222)</f>
         <v>208</v>
       </c>
       <c r="C212" s="12">
@@ -20995,6 +21136,147 @@
       </c>
       <c r="Q224" s="20"/>
       <c r="R224" s="21"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>308</v>
+      </c>
+      <c r="B225" t="s">
+        <v>307</v>
+      </c>
+      <c r="C225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <f>B213/B$212</f>
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="C226">
+        <f>C213/C$212</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3.67</v>
+      </c>
+      <c r="B227">
+        <f t="shared" ref="B227:C235" si="11">B214/B$212</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3.33</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="11"/>
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="11"/>
+        <v>7.2115384615384609E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="11"/>
+        <v>0.10096153846153846</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2.67</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="11"/>
+        <v>0.13942307692307693</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="11"/>
+        <v>0.12980769230769232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2.33</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="11"/>
+        <v>0.14423076923076922</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="11"/>
+        <v>0.16346153846153846</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="11"/>
+        <v>8.6538461538461536E-2</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="11"/>
+        <v>0.15865384615384615</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1.67</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="11"/>
+        <v>9.1346153846153841E-2</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="11"/>
+        <v>0.14903846153846154</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1.33</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="11"/>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="11"/>
+        <v>9.1346153846153841E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="11"/>
+        <v>5.2884615384615384E-2</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="11"/>
+        <v>3.3653846153846152E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
